--- a/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="4"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -21071,8 +21071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21277,7 +21277,7 @@
       </c>
       <c r="D6" s="63">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-32.762395692965995</v>
+        <v>-36.762395692965995</v>
       </c>
       <c r="E6" s="63">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="D7" s="63">
         <f t="shared" ref="D7:D10" si="4">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-14.287187078898</v>
+        <v>-18.287187078898</v>
       </c>
       <c r="E7" s="63">
         <f t="shared" ref="E7:E10" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D8" s="63">
         <f t="shared" si="4"/>
-        <v>-5.0495827718640101</v>
+        <v>-9.0495827718640101</v>
       </c>
       <c r="E8" s="63">
         <f t="shared" si="5"/>
@@ -21440,7 +21440,7 @@
       </c>
       <c r="D9" s="63">
         <f t="shared" si="4"/>
-        <v>13.425625842203999</v>
+        <v>9.4256258422039991</v>
       </c>
       <c r="E9" s="63">
         <f t="shared" si="5"/>
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-142</v>
+        <v>-146</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -21491,7 +21491,7 @@
       </c>
       <c r="D10" s="63">
         <f t="shared" si="4"/>
-        <v>22.66323014923799</v>
+        <v>18.66323014923799</v>
       </c>
       <c r="E10" s="63">
         <f t="shared" si="5"/>
@@ -23613,8 +23613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G118" sqref="A3:G118"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE73" sqref="AE73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26543,7 +26543,7 @@
       </c>
       <c r="D99" s="70">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>-32.762395692965995</v>
+        <v>-36.762395692965995</v>
       </c>
       <c r="E99" s="70">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="D100" s="70">
         <f>IF('4535A_2'!D7="", "", '4535A_2'!D7)</f>
-        <v>-14.287187078898</v>
+        <v>-18.287187078898</v>
       </c>
       <c r="E100" s="70">
         <f>IF('4535A_2'!E7="", "", '4535A_2'!E7)</f>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="D101" s="70">
         <f>IF('4535A_2'!D8="", "", '4535A_2'!D8)</f>
-        <v>-5.0495827718640101</v>
+        <v>-9.0495827718640101</v>
       </c>
       <c r="E101" s="70">
         <f>IF('4535A_2'!E8="", "", '4535A_2'!E8)</f>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="D102" s="70">
         <f>IF('4535A_2'!D9="", "", '4535A_2'!D9)</f>
-        <v>13.425625842203999</v>
+        <v>9.4256258422039991</v>
       </c>
       <c r="E102" s="70">
         <f>IF('4535A_2'!E9="", "", '4535A_2'!E9)</f>
@@ -26663,7 +26663,7 @@
       </c>
       <c r="D103" s="70">
         <f>IF('4535A_2'!D10="", "", '4535A_2'!D10)</f>
-        <v>22.66323014923799</v>
+        <v>18.66323014923799</v>
       </c>
       <c r="E103" s="70">
         <f>IF('4535A_2'!E10="", "", '4535A_2'!E10)</f>

--- a/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12588" yWindow="-12" windowWidth="12636" windowHeight="12000"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11286991" y="2400853"/>
-          <a:ext cx="4457196" cy="4001869"/>
+          <a:off x="10941850" y="2425506"/>
+          <a:ext cx="4358584" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
         </a:xfrm>
@@ -2961,8 +2961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10521220" y="0"/>
-          <a:ext cx="4101896" cy="0"/>
+          <a:off x="10303826" y="0"/>
+          <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3985,8 +3985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10494574" y="2293277"/>
-          <a:ext cx="4454944" cy="3651689"/>
+          <a:off x="10295110" y="2324653"/>
+          <a:ext cx="4354091" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -5009,8 +5009,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="17946097">
-          <a:off x="11490512" y="4753536"/>
-          <a:ext cx="2167218" cy="921123"/>
+          <a:off x="11150974" y="4835339"/>
+          <a:ext cx="2223248" cy="921123"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5125,8 +5125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11301149" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="11032208" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6149,8 +6149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11247611" y="2293277"/>
-          <a:ext cx="4489183" cy="3651689"/>
+          <a:off x="10989875" y="2324653"/>
+          <a:ext cx="4388331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -10355,8 +10355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11175644" y="0"/>
-          <a:ext cx="4119825" cy="0"/>
+          <a:off x="10920149" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -11379,8 +11379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11211752" y="2293277"/>
-          <a:ext cx="4604977" cy="3642725"/>
+          <a:off x="10956257" y="2324653"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -12538,8 +12538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -13562,8 +13562,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10978669" y="2293277"/>
-          <a:ext cx="4604978" cy="3642725"/>
+          <a:off x="10720934" y="2324653"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -14591,8 +14591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15615,8 +15615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11079522" y="2248453"/>
-          <a:ext cx="4609461" cy="3642725"/>
+          <a:off x="10821787" y="2279829"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16911,32 +16911,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5546875" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16991,7 +16991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -17110,7 +17110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -17279,7 +17279,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -17310,7 +17310,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -17339,7 +17339,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -17368,7 +17368,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -17493,7 +17493,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
@@ -17911,17 +17911,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J28" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -17929,7 +17929,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17938,7 +17938,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -17948,7 +17948,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -17958,7 +17958,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -17968,7 +17968,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -17978,7 +17978,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -17988,7 +17988,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -17998,7 +17998,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -18008,7 +18008,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -18018,7 +18018,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -18028,7 +18028,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -18038,7 +18038,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -18048,7 +18048,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18058,7 +18058,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18068,7 +18068,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -18078,7 +18078,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -18088,7 +18088,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18098,7 +18098,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -18108,7 +18108,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -18118,7 +18118,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -18128,7 +18128,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -18138,7 +18138,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -18148,7 +18148,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -18158,7 +18158,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18179,30 +18179,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18256,7 +18255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>26</v>
       </c>
@@ -18266,11 +18265,11 @@
       </c>
       <c r="C3" s="61">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>20.602540378443898</v>
+        <v>120.6025403784439</v>
       </c>
       <c r="D3" s="61">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-108.60254037844385</v>
+        <v>9.3974596215561519</v>
       </c>
       <c r="E3" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
@@ -18327,11 +18326,11 @@
       </c>
       <c r="C4" s="61">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>20.602540378443891</v>
+        <v>120.60254037844389</v>
       </c>
       <c r="D4" s="61">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-127.07774899251189</v>
+        <v>-9.0777489925118857</v>
       </c>
       <c r="E4" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -18375,7 +18374,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="33"/>
       <c r="C5" s="23"/>
@@ -18413,7 +18412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -18472,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-16</v>
+        <v>84</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -18541,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -18551,7 +18550,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -18582,21 +18581,21 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="61">
-        <f t="shared" ref="B11" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f>((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
       <c r="C11" s="61">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>36.602540378443862</v>
+        <v>136.60254037844385</v>
       </c>
       <c r="D11" s="61">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-136.31535329954585</v>
+        <v>-18.315353299545848</v>
       </c>
       <c r="E11" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
@@ -18606,7 +18605,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="63">
-        <f t="shared" ref="G11" si="3">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11" si="2">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -18632,7 +18631,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -18661,7 +18660,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -18690,7 +18689,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -18719,7 +18718,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -18748,7 +18747,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="33"/>
       <c r="C16" s="23"/>
@@ -18777,7 +18776,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -18806,7 +18805,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -18835,7 +18834,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -18864,7 +18863,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -18893,7 +18892,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -18922,7 +18921,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -18951,7 +18950,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -18980,7 +18979,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -19038,17 +19037,17 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" s="56"/>
     </row>
   </sheetData>
@@ -19062,27 +19061,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19136,7 +19135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -19217,7 +19216,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -19255,7 +19254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -19394,7 +19393,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -19425,7 +19424,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -19457,7 +19456,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -19486,7 +19485,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -19515,7 +19514,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
@@ -19611,7 +19610,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -19640,7 +19639,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
@@ -19688,7 +19687,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
@@ -19784,7 +19783,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
@@ -19832,7 +19831,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
@@ -19880,7 +19879,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
@@ -19928,7 +19927,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
@@ -20053,12 +20052,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>32</v>
       </c>
@@ -20078,14 +20077,14 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20139,7 +20138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -20239,7 +20238,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>26</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -20510,7 +20509,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20560,7 +20559,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
@@ -20658,7 +20657,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>26</v>
       </c>
@@ -20706,7 +20705,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -20735,7 +20734,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -20764,7 +20763,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -20793,7 +20792,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -20822,7 +20821,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -20851,7 +20850,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -20880,7 +20879,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -20909,7 +20908,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -20938,7 +20937,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -20967,7 +20966,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -20996,7 +20995,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21054,12 +21053,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>33</v>
       </c>
@@ -21079,22 +21078,22 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21148,7 +21147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -21229,7 +21228,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21267,7 +21266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -21481,7 +21480,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -21531,7 +21530,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -21562,7 +21561,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -21591,7 +21590,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -21620,7 +21619,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -21649,7 +21648,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -21678,7 +21677,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -21707,7 +21706,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -21736,7 +21735,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -21765,7 +21764,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -21794,7 +21793,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -21823,7 +21822,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -21852,7 +21851,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -21881,7 +21880,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21910,7 +21909,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21968,12 +21967,12 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J31" s="73" t="s">
         <v>31</v>
       </c>
@@ -21993,22 +21992,22 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22062,7 +22061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22143,7 +22142,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22181,7 +22180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -22319,7 +22318,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -22350,7 +22349,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -22381,7 +22380,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -22410,7 +22409,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -22439,7 +22438,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -22468,7 +22467,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -22497,7 +22496,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -22526,7 +22525,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -22555,7 +22554,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -22584,7 +22583,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -22613,7 +22612,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -22642,7 +22641,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -22671,7 +22670,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -22700,7 +22699,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -22729,7 +22728,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -22787,7 +22786,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -22807,22 +22806,22 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22876,7 +22875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22957,7 +22956,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22995,7 +22994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -23133,7 +23132,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -23164,7 +23163,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -23195,7 +23194,7 @@
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -23224,7 +23223,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -23253,7 +23252,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -23282,7 +23281,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -23311,7 +23310,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -23340,7 +23339,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -23369,7 +23368,7 @@
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -23398,7 +23397,7 @@
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -23427,7 +23426,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -23456,7 +23455,7 @@
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -23485,7 +23484,7 @@
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -23514,7 +23513,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -23543,7 +23542,7 @@
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -23601,7 +23600,7 @@
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
@@ -23617,15 +23616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G107" sqref="A3:G107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="65"/>
-    <col min="5" max="5" width="11.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="65"/>
+    <col min="5" max="5" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -23652,7 +23651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="str">
         <f>IF('4535A'!A3=0, "", '4535A'!A3)</f>
         <v/>
@@ -23682,7 +23681,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="str">
         <f>IF('4535A'!A4=0, "", '4535A'!A4)</f>
         <v/>
@@ -23712,7 +23711,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="str">
         <f>IF('4535A'!A5=0, "", '4535A'!A5)</f>
         <v/>
@@ -23742,7 +23741,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="str">
         <f>IF('4535A'!A6=0, "", '4535A'!A6)</f>
         <v/>
@@ -23772,7 +23771,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="str">
         <f>IF('4535A'!A7=0, "", '4535A'!A7)</f>
         <v/>
@@ -23802,7 +23801,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="str">
         <f>IF('4535A'!A8=0, "", '4535A'!A8)</f>
         <v/>
@@ -23832,7 +23831,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="str">
         <f>IF('4535A'!A9=0, "", '4535A'!A9)</f>
         <v/>
@@ -23862,7 +23861,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="str">
         <f>IF('4535A'!A10=0, "", '4535A'!A10)</f>
         <v/>
@@ -23892,7 +23891,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="str">
         <f>IF('4535A'!A11=0, "", '4535A'!A11)</f>
         <v/>
@@ -23922,7 +23921,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="str">
         <f>IF('4535A'!A12=0, "", '4535A'!A12)</f>
         <v/>
@@ -23952,7 +23951,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="str">
         <f>IF('4535A'!A13=0, "", '4535A'!A13)</f>
         <v/>
@@ -23982,7 +23981,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="str">
         <f>IF('4535A'!A14=0, "", '4535A'!A14)</f>
         <v>triangle_10pad</v>
@@ -24012,7 +24011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="str">
         <f>IF('4535A'!A15=0, "", '4535A'!A15)</f>
         <v>triangle_10pad</v>
@@ -24042,7 +24041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="str">
         <f>IF('4535A'!A16=0, "", '4535A'!A16)</f>
         <v/>
@@ -24072,7 +24071,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="str">
         <f>IF('4535A'!A17=0, "", '4535A'!A17)</f>
         <v>triangle_10pad</v>
@@ -24102,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="str">
         <f>IF('4535A'!A18=0, "", '4535A'!A18)</f>
         <v>triangle_10pad</v>
@@ -24132,7 +24131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="str">
         <f>IF('4535A'!A19=0, "", '4535A'!A19)</f>
         <v>triangle_10pad</v>
@@ -24162,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="str">
         <f>IF('4535A'!A20=0, "", '4535A'!A20)</f>
         <v>triangle_10pad</v>
@@ -24192,7 +24191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="str">
         <f>IF('4535A'!A21=0, "", '4535A'!A21)</f>
         <v>triangle_10pad</v>
@@ -24222,7 +24221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="str">
         <f>IF('4535A'!A22=0, "", '4535A'!A22)</f>
         <v>triangle_10pad</v>
@@ -24252,7 +24251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="str">
         <f>IF('4535A'!A23=0, "", '4535A'!A23)</f>
         <v>triangle_10pad</v>
@@ -24282,7 +24281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="str">
         <f>IF('4535A'!A24=0, "", '4535A'!A24)</f>
         <v>triangle_10pad</v>
@@ -24312,7 +24311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="str">
         <f>IF('4535A'!A25=0, "", '4535A'!A25)</f>
         <v/>
@@ -24342,7 +24341,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="str">
         <f>IF('4535A_1'!A3="", "", '4535A_1'!A3)</f>
         <v>triangle_10pad</v>
@@ -24353,11 +24352,11 @@
       </c>
       <c r="C26" s="76">
         <f>IF('4535A_1'!C3="", "", '4535A_1'!C3)</f>
-        <v>20.602540378443898</v>
+        <v>120.6025403784439</v>
       </c>
       <c r="D26" s="76">
         <f>IF('4535A_1'!D3="", "", '4535A_1'!D3)</f>
-        <v>-108.60254037844385</v>
+        <v>9.3974596215561519</v>
       </c>
       <c r="E26" s="76">
         <f>IF('4535A_1'!E3="", "", '4535A_1'!E3)</f>
@@ -24372,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="str">
         <f>IF('4535A_1'!A4="", "", '4535A_1'!A4)</f>
         <v>triangle_10pad</v>
@@ -24383,11 +24382,11 @@
       </c>
       <c r="C27" s="76">
         <f>IF('4535A_1'!C4="", "", '4535A_1'!C4)</f>
-        <v>20.602540378443891</v>
+        <v>120.60254037844389</v>
       </c>
       <c r="D27" s="76">
         <f>IF('4535A_1'!D4="", "", '4535A_1'!D4)</f>
-        <v>-127.07774899251189</v>
+        <v>-9.0777489925118857</v>
       </c>
       <c r="E27" s="76">
         <f>IF('4535A_1'!E4="", "", '4535A_1'!E4)</f>
@@ -24402,7 +24401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="str">
         <f>IF('4535A_1'!A5="", "", '4535A_1'!A5)</f>
         <v/>
@@ -24432,7 +24431,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="str">
         <f>IF('4535A_1'!A6="", "", '4535A_1'!A6)</f>
         <v/>
@@ -24462,7 +24461,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="str">
         <f>IF('4535A_1'!A7="", "", '4535A_1'!A7)</f>
         <v/>
@@ -24492,7 +24491,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="str">
         <f>IF('4535A_1'!A8="", "", '4535A_1'!A8)</f>
         <v/>
@@ -24522,7 +24521,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="str">
         <f>IF('4535A_1'!A9="", "", '4535A_1'!A9)</f>
         <v/>
@@ -24552,7 +24551,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="str">
         <f>IF('4535A_1'!A10="", "", '4535A_1'!A10)</f>
         <v/>
@@ -24582,7 +24581,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="str">
         <f>IF('4535A_1'!A11="", "", '4535A_1'!A11)</f>
         <v>triangle_10pad</v>
@@ -24593,11 +24592,11 @@
       </c>
       <c r="C34" s="76">
         <f>IF('4535A_1'!C11="", "", '4535A_1'!C11)</f>
-        <v>36.602540378443862</v>
+        <v>136.60254037844385</v>
       </c>
       <c r="D34" s="76">
         <f>IF('4535A_1'!D11="", "", '4535A_1'!D11)</f>
-        <v>-136.31535329954585</v>
+        <v>-18.315353299545848</v>
       </c>
       <c r="E34" s="76">
         <f>IF('4535A_1'!E11="", "", '4535A_1'!E11)</f>
@@ -24612,7 +24611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="str">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!A12)</f>
         <v/>
@@ -24642,7 +24641,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="str">
         <f>IF('4535A_1'!A13="", "", '4535A_1'!A13)</f>
         <v/>
@@ -24672,7 +24671,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="str">
         <f>IF('4535A_1'!A14="", "", '4535A_1'!A14)</f>
         <v/>
@@ -24702,7 +24701,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="str">
         <f>IF('4535A_1'!A15="", "", '4535A_1'!A15)</f>
         <v/>
@@ -24732,7 +24731,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="str">
         <f>IF('4535A_1'!A16="", "", '4535A_1'!A16)</f>
         <v/>
@@ -24762,7 +24761,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="str">
         <f>IF('4535A_1'!A17="", "", '4535A_1'!A17)</f>
         <v/>
@@ -24792,7 +24791,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="str">
         <f>IF('4535A_1'!A18="", "", '4535A_1'!A18)</f>
         <v/>
@@ -24822,7 +24821,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="str">
         <f>IF('4535A_1'!A19="", "", '4535A_1'!A19)</f>
         <v/>
@@ -24852,7 +24851,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="str">
         <f>IF('4535A_1'!A20="", "", '4535A_1'!A20)</f>
         <v/>
@@ -24882,7 +24881,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="str">
         <f>IF('4535A_1'!A21="", "", '4535A_1'!A21)</f>
         <v/>
@@ -24912,7 +24911,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="str">
         <f>IF('4535A_1'!A22="", "", '4535A_1'!A22)</f>
         <v/>
@@ -24942,7 +24941,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="str">
         <f>IF('4535A_1'!A23="", "", '4535A_1'!A23)</f>
         <v/>
@@ -24972,7 +24971,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="str">
         <f>IF('4535A_1'!A24="", "", '4535A_1'!A24)</f>
         <v/>
@@ -25002,7 +25001,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="str">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!A25)</f>
         <v/>
@@ -25032,7 +25031,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="str">
         <f>IF('4535_1'!A3="", "", '4535_1'!A3)</f>
         <v/>
@@ -25062,7 +25061,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="str">
         <f>IF('4535_1'!A4="", "", '4535_1'!A4)</f>
         <v/>
@@ -25092,7 +25091,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="str">
         <f>IF('4535_1'!A5="", "", '4535_1'!A5)</f>
         <v/>
@@ -25122,7 +25121,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="str">
         <f>IF('4535_1'!A6="", "", '4535_1'!A6)</f>
         <v/>
@@ -25152,7 +25151,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="str">
         <f>IF('4535_1'!A7="", "", '4535_1'!A7)</f>
         <v/>
@@ -25182,7 +25181,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="str">
         <f>IF('4535_1'!A8="", "", '4535_1'!A8)</f>
         <v/>
@@ -25212,7 +25211,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="str">
         <f>IF('4535_1'!A9="", "", '4535_1'!A9)</f>
         <v/>
@@ -25242,7 +25241,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="str">
         <f>IF('4535_1'!A10="", "", '4535_1'!A10)</f>
         <v/>
@@ -25272,7 +25271,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="str">
         <f>IF('4535_1'!A11="", "", '4535_1'!A11)</f>
         <v/>
@@ -25302,7 +25301,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="str">
         <f>IF('4535_1'!A12="", "", '4535_1'!A12)</f>
         <v/>
@@ -25332,7 +25331,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="str">
         <f>IF('4535_1'!A13="", "", '4535_1'!A13)</f>
         <v/>
@@ -25362,7 +25361,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="str">
         <f>IF('4535_1'!A14="", "", '4535_1'!A14)</f>
         <v>triangle_10pad</v>
@@ -25392,7 +25391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="str">
         <f>IF('4535_1'!A15="", "", '4535_1'!A15)</f>
         <v>triangle_10pad</v>
@@ -25422,7 +25421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="str">
         <f>IF('4535_1'!A16="", "", '4535_1'!A16)</f>
         <v/>
@@ -25452,7 +25451,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="str">
         <f>IF('4535_1'!A17="", "", '4535_1'!A17)</f>
         <v>triangle_10pad</v>
@@ -25482,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="str">
         <f>IF('4535_1'!A18="", "", '4535_1'!A18)</f>
         <v>triangle_10pad</v>
@@ -25512,7 +25511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="str">
         <f>IF('4535_1'!A19="", "", '4535_1'!A19)</f>
         <v>triangle_10pad</v>
@@ -25542,7 +25541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25572,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="57" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25602,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25632,7 +25631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25662,7 +25661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25692,7 +25691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25722,7 +25721,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="str">
         <f>IF('4535_2'!A3="", "", '4535_2'!A3)</f>
         <v/>
@@ -25752,7 +25751,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="str">
         <f>IF('4535_2'!A4="", "", '4535_2'!A4)</f>
         <v>triangle_10pad</v>
@@ -25782,7 +25781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="str">
         <f>IF('4535_2'!A5="", "", '4535_2'!A5)</f>
         <v>triangle_10pad</v>
@@ -25812,7 +25811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="str">
         <f>IF('4535_2'!A6="", "", '4535_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -25842,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="str">
         <f>IF('4535_2'!A7="", "", '4535_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -25872,7 +25871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="str">
         <f>IF('4535_2'!A8="", "", '4535_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -25902,7 +25901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="str">
         <f>IF('4535_2'!A9="", "", '4535_2'!A9)</f>
         <v>triangle_10pad</v>
@@ -25932,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="str">
         <f>IF('4535_2'!A10="", "", '4535_2'!A10)</f>
         <v>triangle_10pad</v>
@@ -25962,7 +25961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="str">
         <f>IF('4535_2'!A11="", "", '4535_2'!A11)</f>
         <v>triangle_10pad</v>
@@ -25992,7 +25991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="str">
         <f>IF('4535_2'!A12="", "", '4535_2'!A12)</f>
         <v>triangle_10pad</v>
@@ -26022,7 +26021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="str">
         <f>IF('4535_2'!A13="", "", '4535_2'!A13)</f>
         <v>triangle_10pad</v>
@@ -26052,7 +26051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="str">
         <f>IF('4535_2'!A14="", "", '4535_2'!A14)</f>
         <v/>
@@ -26082,7 +26081,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="str">
         <f>IF('4535_2'!A15="", "", '4535_2'!A15)</f>
         <v/>
@@ -26112,7 +26111,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="str">
         <f>IF('4535_2'!A16="", "", '4535_2'!A16)</f>
         <v/>
@@ -26142,7 +26141,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="str">
         <f>IF('4535_2'!A17="", "", '4535_2'!A17)</f>
         <v/>
@@ -26172,7 +26171,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="str">
         <f>IF('4535_2'!A18="", "", '4535_2'!A18)</f>
         <v/>
@@ -26202,7 +26201,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="str">
         <f>IF('4535_2'!A19="", "", '4535_2'!A19)</f>
         <v/>
@@ -26232,7 +26231,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="str">
         <f>IF('4535_2'!A20="", "", '4535_2'!A20)</f>
         <v/>
@@ -26262,7 +26261,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="str">
         <f>IF('4535_2'!A21="", "", '4535_2'!A21)</f>
         <v/>
@@ -26292,7 +26291,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="str">
         <f>IF('4535_2'!A22="", "", '4535_2'!A22)</f>
         <v/>
@@ -26322,7 +26321,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="str">
         <f>IF('4535_2'!A23="", "", '4535_2'!A23)</f>
         <v/>
@@ -26352,7 +26351,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="str">
         <f>IF('4535_2'!A24="", "", '4535_2'!A24)</f>
         <v/>
@@ -26382,7 +26381,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="64" t="str">
         <f>IF('4535_2'!A25="", "", '4535_2'!A25)</f>
         <v/>
@@ -26412,7 +26411,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="str">
         <f>IF('4535_2'!A26="", "", '4535_2'!A26)</f>
         <v/>
@@ -26442,7 +26441,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="68" t="str">
         <f>IF('4535A_2'!A3="", "", '4535A_2'!A3)</f>
         <v/>
@@ -26472,7 +26471,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="68" t="str">
         <f>IF('4535A_2'!A4="", "", '4535A_2'!A4)</f>
         <v/>
@@ -26502,7 +26501,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="68" t="str">
         <f>IF('4535A_2'!A5="", "", '4535A_2'!A5)</f>
         <v/>
@@ -26532,7 +26531,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="68" t="str">
         <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
         <v>triangle_10pad</v>
@@ -26562,7 +26561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="68" t="str">
         <f>IF('4535A_2'!A7="", "", '4535A_2'!A7)</f>
         <v>triangle_10pad</v>
@@ -26592,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="68" t="str">
         <f>IF('4535A_2'!A8="", "", '4535A_2'!A8)</f>
         <v>triangle_10pad</v>
@@ -26622,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="68" t="str">
         <f>IF('4535A_2'!A9="", "", '4535A_2'!A9)</f>
         <v>triangle_10pad</v>
@@ -26652,7 +26651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="str">
         <f>IF('4535A_2'!A10="", "", '4535A_2'!A10)</f>
         <v>triangle_10pad</v>
@@ -26682,7 +26681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="68" t="str">
         <f>IF('4535A_2'!A11="", "", '4535A_2'!A11)</f>
         <v/>
@@ -26712,7 +26711,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="68" t="str">
         <f>IF('4535A_2'!A12="", "", '4535A_2'!A12)</f>
         <v/>
@@ -26742,7 +26741,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="68" t="str">
         <f>IF('4535A_2'!A13="", "", '4535A_2'!A13)</f>
         <v/>
@@ -26772,7 +26771,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="68" t="str">
         <f>IF('4535A_2'!A14="", "", '4535A_2'!A14)</f>
         <v/>
@@ -26802,7 +26801,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="68" t="str">
         <f>IF('4535A_2'!A15="", "", '4535A_2'!A15)</f>
         <v/>
@@ -26832,7 +26831,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="68" t="str">
         <f>IF('4535A_2'!A16="", "", '4535A_2'!A16)</f>
         <v/>
@@ -26862,7 +26861,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="str">
         <f>IF('4535A_2'!A17="", "", '4535A_2'!A17)</f>
         <v/>
@@ -26892,7 +26891,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="68" t="str">
         <f>IF('4535A_2'!A18="", "", '4535A_2'!A18)</f>
         <v/>
@@ -26922,7 +26921,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="68" t="str">
         <f>IF('4535A_2'!A19="", "", '4535A_2'!A19)</f>
         <v/>
@@ -26952,7 +26951,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="68" t="str">
         <f>IF('4535A_2'!A20="", "", '4535A_2'!A20)</f>
         <v/>
@@ -26982,7 +26981,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="68" t="str">
         <f>IF('4535A_2'!A21="", "", '4535A_2'!A21)</f>
         <v/>
@@ -27012,7 +27011,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="68" t="str">
         <f>IF('4535A_2'!A22="", "", '4535A_2'!A22)</f>
         <v/>
@@ -27042,7 +27041,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="68" t="str">
         <f>IF('4535A_2'!A23="", "", '4535A_2'!A23)</f>
         <v/>
@@ -27072,7 +27071,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="68" t="str">
         <f>IF('4535A_2'!A24="", "", '4535A_2'!A24)</f>
         <v/>
@@ -27102,7 +27101,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="68" t="str">
         <f>IF('4535A_2'!A25="", "", '4535A_2'!A25)</f>
         <v/>
@@ -27132,7 +27131,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="72" t="str">
         <f>IF('6451A'!A3="", "", '6451A'!A3)</f>
         <v/>
@@ -27162,7 +27161,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="72" t="str">
         <f>IF('6451A'!A4="", "", '6451A'!A4)</f>
         <v/>
@@ -27192,7 +27191,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="72" t="str">
         <f>IF('6451A'!A5="", "", '6451A'!A5)</f>
         <v/>
@@ -27222,7 +27221,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="72" t="str">
         <f>IF('6451A'!A6="", "", '6451A'!A6)</f>
         <v/>
@@ -27252,7 +27251,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="72" t="str">
         <f>IF('6451A'!A7="", "", '6451A'!A7)</f>
         <v/>
@@ -27282,7 +27281,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="72" t="str">
         <f>IF('6451A'!A8="", "", '6451A'!A8)</f>
         <v/>
@@ -27312,7 +27311,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="72" t="str">
         <f>IF('6451A'!A9="", "", '6451A'!A9)</f>
         <v/>
@@ -27342,7 +27341,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="72" t="str">
         <f>IF('6451A'!A10="", "", '6451A'!A10)</f>
         <v/>
@@ -27372,7 +27371,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="72" t="str">
         <f>IF('6451A'!A11="", "", '6451A'!A11)</f>
         <v/>
@@ -27402,7 +27401,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="72" t="str">
         <f>IF('6451A'!A12="", "", '6451A'!A12)</f>
         <v/>
@@ -27432,7 +27431,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="72" t="str">
         <f>IF('6451A'!A13="", "", '6451A'!A13)</f>
         <v/>
@@ -27462,7 +27461,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="str">
         <f>IF('6451A'!A14="", "", '6451A'!A14)</f>
         <v/>
@@ -27492,7 +27491,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="72" t="str">
         <f>IF('6451A'!A15="", "", '6451A'!A15)</f>
         <v/>
@@ -27522,7 +27521,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="72" t="str">
         <f>IF('6451A'!A16="", "", '6451A'!A16)</f>
         <v/>
@@ -27552,7 +27551,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="str">
         <f>IF('6451A'!A17="", "", '6451A'!A17)</f>
         <v/>
@@ -27582,7 +27581,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="72" t="str">
         <f>IF('6451A'!A18="", "", '6451A'!A18)</f>
         <v/>
@@ -27612,7 +27611,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="72" t="str">
         <f>IF('6451A'!A19="", "", '6451A'!A19)</f>
         <v/>
@@ -27642,7 +27641,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="72" t="str">
         <f>IF('6451A'!A20="", "", '6451A'!A20)</f>
         <v/>
@@ -27672,7 +27671,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="72" t="str">
         <f>IF('6451A'!A21="", "", '6451A'!A21)</f>
         <v/>
@@ -27702,7 +27701,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="72" t="str">
         <f>IF('6451A'!A22="", "", '6451A'!A22)</f>
         <v/>
@@ -27732,7 +27731,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="str">
         <f>IF('6451A'!A23="", "", '6451A'!A23)</f>
         <v/>
@@ -27762,7 +27761,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="72" t="str">
         <f>IF('6451A'!A24="", "", '6451A'!A24)</f>
         <v/>
@@ -27792,7 +27791,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="72" t="str">
         <f>IF('6451A'!A25="", "", '6451A'!A25)</f>
         <v/>
@@ -27822,7 +27821,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="71" t="str">
         <f>IF('4616A'!A3="", "", '4616A'!A3)</f>
         <v/>
@@ -27852,7 +27851,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="71" t="str">
         <f>IF('4616A'!A4="", "", '4616A'!A4)</f>
         <v/>
@@ -27882,7 +27881,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="71" t="str">
         <f>IF('4616A'!A5="", "", '4616A'!A5)</f>
         <v/>
@@ -27912,7 +27911,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="71" t="str">
         <f>IF('4616A'!A6="", "", '4616A'!A6)</f>
         <v/>
@@ -27942,7 +27941,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="71" t="str">
         <f>IF('4616A'!A7="", "", '4616A'!A7)</f>
         <v/>
@@ -27972,7 +27971,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="71" t="str">
         <f>IF('4616A'!A8="", "", '4616A'!A8)</f>
         <v/>
@@ -28002,7 +28001,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="71" t="str">
         <f>IF('4616A'!A9="", "", '4616A'!A9)</f>
         <v/>
@@ -28032,7 +28031,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="71" t="str">
         <f>IF('4616A'!A10="", "", '4616A'!A10)</f>
         <v/>
@@ -28062,7 +28061,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="71" t="str">
         <f>IF('4616A'!A11="", "", '4616A'!A11)</f>
         <v/>
@@ -28092,7 +28091,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="71" t="str">
         <f>IF('4616A'!A12="", "", '4616A'!A12)</f>
         <v/>
@@ -28122,7 +28121,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="71" t="str">
         <f>IF('4616A'!A13="", "", '4616A'!A13)</f>
         <v/>
@@ -28152,7 +28151,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="71" t="str">
         <f>IF('4616A'!A14="", "", '4616A'!A14)</f>
         <v/>
@@ -28182,7 +28181,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="71" t="str">
         <f>IF('4616A'!A15="", "", '4616A'!A15)</f>
         <v/>
@@ -28212,7 +28211,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="71" t="str">
         <f>IF('4616A'!A16="", "", '4616A'!A16)</f>
         <v/>
@@ -28242,7 +28241,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="71" t="str">
         <f>IF('4616A'!A17="", "", '4616A'!A17)</f>
         <v/>
@@ -28272,7 +28271,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="71" t="str">
         <f>IF('4616A'!A18="", "", '4616A'!A18)</f>
         <v/>
@@ -28302,7 +28301,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="71" t="str">
         <f>IF('4616A'!A19="", "", '4616A'!A19)</f>
         <v/>
@@ -28332,7 +28331,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="71" t="str">
         <f>IF('4616A'!A20="", "", '4616A'!A20)</f>
         <v/>
@@ -28362,7 +28361,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="71" t="str">
         <f>IF('4616A'!A21="", "", '4616A'!A21)</f>
         <v/>
@@ -28392,7 +28391,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="71" t="str">
         <f>IF('4616A'!A22="", "", '4616A'!A22)</f>
         <v/>
@@ -28422,7 +28421,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="71" t="str">
         <f>IF('4616A'!A23="", "", '4616A'!A23)</f>
         <v/>
@@ -28452,7 +28451,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="71" t="str">
         <f>IF('4616A'!A24="", "", '4616A'!A24)</f>
         <v/>
@@ -28482,7 +28481,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="71" t="str">
         <f>IF('4616A'!A25="", "", '4616A'!A25)</f>
         <v/>
@@ -28512,7 +28511,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="69" t="str">
         <f>IF('4616A'!A26="", "", '4616A'!A26)</f>
         <v/>

--- a/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10155" windowHeight="10110" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="34">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -858,7 +858,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10941850" y="2425506"/>
+          <a:off x="10908232" y="2425506"/>
           <a:ext cx="4358584" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
@@ -2961,7 +2961,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10303826" y="0"/>
+          <a:off x="10214179" y="0"/>
           <a:ext cx="4018973" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -3985,8 +3985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10295110" y="2324653"/>
-          <a:ext cx="4354091" cy="3716684"/>
+          <a:off x="10205462" y="2324653"/>
+          <a:ext cx="4354092" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -4992,39 +4992,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>809065</xdr:colOff>
+      <xdr:colOff>5603</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105336</xdr:rowOff>
+      <xdr:rowOff>162485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1730188</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>31378</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173691</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61633</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Freeform 28"/>
+        <xdr:cNvPr id="57" name="Freeform 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="17946097">
-          <a:off x="11150974" y="4835339"/>
-          <a:ext cx="2223248" cy="921123"/>
+        <a:xfrm rot="14370968" flipH="1">
+          <a:off x="11586882" y="3653118"/>
+          <a:ext cx="1624854" cy="2801470"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2162736"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 2162736 w 2162736"/>
-            <a:gd name="connsiteY1" fmla="*/ 22411 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 1647265 w 2162736"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 549088 w 2162736"/>
-            <a:gd name="connsiteY3" fmla="*/ 941294 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2162736"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 952500"/>
+            <a:gd name="connsiteX0" fmla="*/ 56030 w 1658471"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 3036794"/>
+            <a:gd name="connsiteX1" fmla="*/ 1098177 w 1658471"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3036794"/>
+            <a:gd name="connsiteX2" fmla="*/ 1658471 w 1658471"/>
+            <a:gd name="connsiteY2" fmla="*/ 1019735 h 3036794"/>
+            <a:gd name="connsiteX3" fmla="*/ 537883 w 1658471"/>
+            <a:gd name="connsiteY3" fmla="*/ 3036794 h 3036794"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1658471"/>
+            <a:gd name="connsiteY4" fmla="*/ 2017059 h 3036794"/>
+            <a:gd name="connsiteX5" fmla="*/ 549088 w 1658471"/>
+            <a:gd name="connsiteY5" fmla="*/ 986118 h 3036794"/>
+            <a:gd name="connsiteX6" fmla="*/ 78441 w 1658471"/>
+            <a:gd name="connsiteY6" fmla="*/ 89647 h 3036794"/>
+            <a:gd name="connsiteX7" fmla="*/ 78441 w 1658471"/>
+            <a:gd name="connsiteY7" fmla="*/ 89647 h 3036794"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -5043,47 +5049,60 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX4" y="connsiteY4"/>
             </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2162736" h="952500">
+            <a:path w="1658471" h="3036794">
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="56030" y="11206"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2162736" y="22411"/>
+                <a:pt x="1098177" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1647265" y="952500"/>
+                <a:pt x="1658471" y="1019735"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="549088" y="941294"/>
+                <a:pt x="537883" y="3036794"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="2017059"/>
               </a:lnTo>
-              <a:close/>
+              <a:lnTo>
+                <a:pt x="549088" y="986118"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="78441" y="89647"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="78441" y="89647"/>
+              </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln w="57150"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8252,8 +8271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12246215" y="2293277"/>
-          <a:ext cx="4576056" cy="3651689"/>
+          <a:off x="12051232" y="2324653"/>
+          <a:ext cx="4544680" cy="3705478"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -10355,8 +10374,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10920149" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="10921270" y="0"/>
+          <a:ext cx="4034661" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -11379,8 +11398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10956257" y="2324653"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="10957378" y="2255737"/>
+          <a:ext cx="4519813" cy="3705478"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -12386,45 +12405,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>2039471</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>2342028</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>425825</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Freeform 57"/>
+        <xdr:cNvPr id="57" name="Freeform 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13514295" y="3204882"/>
-          <a:ext cx="1624854" cy="2801470"/>
+        <a:xfrm rot="7287203">
+          <a:off x="13453500" y="4313427"/>
+          <a:ext cx="2161055" cy="952500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 56030 w 1658471"/>
-            <a:gd name="connsiteY0" fmla="*/ 11206 h 3036794"/>
-            <a:gd name="connsiteX1" fmla="*/ 1098177 w 1658471"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3036794"/>
-            <a:gd name="connsiteX2" fmla="*/ 1658471 w 1658471"/>
-            <a:gd name="connsiteY2" fmla="*/ 1019735 h 3036794"/>
-            <a:gd name="connsiteX3" fmla="*/ 537883 w 1658471"/>
-            <a:gd name="connsiteY3" fmla="*/ 3036794 h 3036794"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 1658471"/>
-            <a:gd name="connsiteY4" fmla="*/ 2017059 h 3036794"/>
-            <a:gd name="connsiteX5" fmla="*/ 549088 w 1658471"/>
-            <a:gd name="connsiteY5" fmla="*/ 986118 h 3036794"/>
-            <a:gd name="connsiteX6" fmla="*/ 78441 w 1658471"/>
-            <a:gd name="connsiteY6" fmla="*/ 89647 h 3036794"/>
-            <a:gd name="connsiteX7" fmla="*/ 78441 w 1658471"/>
-            <a:gd name="connsiteY7" fmla="*/ 89647 h 3036794"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2162736"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
+            <a:gd name="connsiteX1" fmla="*/ 2162736 w 2162736"/>
+            <a:gd name="connsiteY1" fmla="*/ 22411 h 952500"/>
+            <a:gd name="connsiteX2" fmla="*/ 1647265 w 2162736"/>
+            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
+            <a:gd name="connsiteX3" fmla="*/ 549088 w 2162736"/>
+            <a:gd name="connsiteY3" fmla="*/ 941294 h 952500"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2162736"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 952500"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -12443,60 +12456,47 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX4" y="connsiteY4"/>
             </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1658471" h="3036794">
+            <a:path w="2162736" h="952500">
               <a:moveTo>
-                <a:pt x="56030" y="11206"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1098177" y="0"/>
+                <a:pt x="2162736" y="22411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1658471" y="1019735"/>
+                <a:pt x="1647265" y="952500"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="537883" y="3036794"/>
+                <a:pt x="549088" y="941294"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2017059"/>
+                <a:pt x="0" y="0"/>
               </a:lnTo>
-              <a:lnTo>
-                <a:pt x="549088" y="986118"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78441" y="89647"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="78441" y="89647"/>
-              </a:lnTo>
+              <a:close/>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="57150"/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -14591,8 +14591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="10942561" y="0"/>
+          <a:ext cx="4119826" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15615,8 +15615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10821787" y="2279829"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="11079522" y="2248453"/>
+          <a:ext cx="4609461" cy="3642725"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16912,7 +16912,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16925,7 +16925,7 @@
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
@@ -17169,7 +17169,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <f>-217+128-64</f>
+        <v>-153</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -17378,7 +17379,7 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>200.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
@@ -17426,7 +17427,7 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>216.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
@@ -17503,7 +17504,7 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>216.60254037844373</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
@@ -17551,7 +17552,7 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>200.60254037844376</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
@@ -17599,7 +17600,7 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>184.60254037844379</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
@@ -17647,7 +17648,7 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>184.60254037844376</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
@@ -17695,7 +17696,7 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>168.60254037844379</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
@@ -17743,7 +17744,7 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>152.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
@@ -17791,7 +17792,7 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>168.60254037844382</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
@@ -17839,7 +17840,7 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>152.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
@@ -18008,7 +18009,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -18018,7 +18019,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -18028,7 +18029,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -18038,7 +18039,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -18048,7 +18049,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -18058,7 +18059,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -18179,15 +18180,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -18265,7 +18267,7 @@
       </c>
       <c r="C3" s="61">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>120.6025403784439</v>
+        <v>-32.397459621556102</v>
       </c>
       <c r="D3" s="61">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
@@ -18326,7 +18328,7 @@
       </c>
       <c r="C4" s="61">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>120.60254037844389</v>
+        <v>-32.397459621556109</v>
       </c>
       <c r="D4" s="61">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
@@ -18471,7 +18473,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>84</v>
+        <f>-37-16-16</f>
+        <v>-69</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -18586,12 +18589,12 @@
         <v>26</v>
       </c>
       <c r="B11" s="61">
-        <f>((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f t="shared" ref="B11:B12" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
       <c r="C11" s="61">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>136.60254037844385</v>
+        <v>-16.397459621556138</v>
       </c>
       <c r="D11" s="61">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
@@ -18605,7 +18608,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="63">
-        <f t="shared" ref="G11" si="2">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11:G12" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -18632,13 +18635,32 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="61">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="61">
+        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-16.397459621556152</v>
+      </c>
+      <c r="D12" s="61">
+        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <v>-36.790561913613885</v>
+      </c>
+      <c r="E12" s="61">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <v>-179.99985969422843</v>
+      </c>
+      <c r="F12" s="60">
+        <v>5</v>
+      </c>
+      <c r="G12" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="38">
         <v>2</v>
@@ -19009,13 +19031,32 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="61">
+        <f t="shared" ref="B25" si="4">((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*16)</f>
+        <v>31</v>
+      </c>
+      <c r="C25" s="61">
+        <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-16.397459621556116</v>
+      </c>
+      <c r="D25" s="61">
+        <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
+        <v>18.635063928590171</v>
+      </c>
+      <c r="E25" s="61">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
+        <v>59.999579082684676</v>
+      </c>
+      <c r="F25" s="60">
+        <v>5</v>
+      </c>
+      <c r="G25" s="63">
+        <f t="shared" ref="G25" si="5">IF($R$3*$R$4=-1,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="38">
         <v>2</v>
@@ -19061,8 +19102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19313,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -19382,8 +19423,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>-46-10</f>
-        <v>-56</v>
+        <f>-46-8</f>
+        <v>-54</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -19524,11 +19565,11 @@
       </c>
       <c r="C14" s="61">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>169.39745962155624</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D14" s="61">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-37.872668235624062</v>
+        <v>-35.872668235624062</v>
       </c>
       <c r="E14" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -19572,11 +19613,11 @@
       </c>
       <c r="C15" s="61">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>153.39745962155624</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D15" s="61">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-47.110272542658066</v>
+        <v>-45.110272542658066</v>
       </c>
       <c r="E15" s="61">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
@@ -19649,11 +19690,11 @@
       </c>
       <c r="C17" s="61">
         <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>153.39745962155627</v>
+        <v>0.39745962155626557</v>
       </c>
       <c r="D17" s="61">
         <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-65.585481156726075</v>
+        <v>-63.585481156726075</v>
       </c>
       <c r="E17" s="61">
         <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
@@ -19697,11 +19738,11 @@
       </c>
       <c r="C18" s="61">
         <f t="shared" si="3"/>
-        <v>169.39745962155624</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D18" s="61">
         <f t="shared" si="4"/>
-        <v>-74.823085463760108</v>
+        <v>-72.823085463760108</v>
       </c>
       <c r="E18" s="61">
         <f t="shared" si="5"/>
@@ -19745,11 +19786,11 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="3"/>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D19" s="61">
         <f t="shared" si="4"/>
-        <v>-47.110272542658095</v>
+        <v>-45.110272542658095</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="5"/>
@@ -19793,11 +19834,11 @@
       </c>
       <c r="C20" s="61">
         <f t="shared" si="3"/>
-        <v>185.39745962155624</v>
+        <v>32.397459621556237</v>
       </c>
       <c r="D20" s="61">
         <f t="shared" si="4"/>
-        <v>-65.585481156726104</v>
+        <v>-63.585481156726104</v>
       </c>
       <c r="E20" s="61">
         <f t="shared" si="5"/>
@@ -19841,11 +19882,11 @@
       </c>
       <c r="C21" s="61">
         <f t="shared" si="3"/>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D21" s="61">
         <f t="shared" si="4"/>
-        <v>-74.823085463760137</v>
+        <v>-72.823085463760137</v>
       </c>
       <c r="E21" s="61">
         <f t="shared" si="5"/>
@@ -19889,11 +19930,11 @@
       </c>
       <c r="C22" s="61">
         <f t="shared" si="3"/>
-        <v>217.39745962155621</v>
+        <v>64.397459621556209</v>
       </c>
       <c r="D22" s="61">
         <f t="shared" si="4"/>
-        <v>-65.585481156726132</v>
+        <v>-63.585481156726132</v>
       </c>
       <c r="E22" s="61">
         <f t="shared" si="5"/>
@@ -19937,11 +19978,11 @@
       </c>
       <c r="C23" s="61">
         <f t="shared" si="3"/>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D23" s="61">
         <f t="shared" si="4"/>
-        <v>-37.87266823562409</v>
+        <v>-35.87266823562409</v>
       </c>
       <c r="E23" s="61">
         <f t="shared" si="5"/>
@@ -19985,11 +20026,11 @@
       </c>
       <c r="C24" s="61">
         <f t="shared" si="3"/>
-        <v>217.39745962155618</v>
+        <v>64.39745962155618</v>
       </c>
       <c r="D24" s="61">
         <f t="shared" si="4"/>
-        <v>-47.110272542658123</v>
+        <v>-45.110272542658123</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="5"/>
@@ -20074,7 +20115,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20190,11 +20231,11 @@
       </c>
       <c r="C4" s="61">
         <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>217.39745962155615</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D4" s="61">
         <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-121.15985531452209</v>
+        <v>-120.15985531452209</v>
       </c>
       <c r="E4" s="61">
         <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -20248,11 +20289,11 @@
       </c>
       <c r="C5" s="61">
         <f t="shared" si="1"/>
-        <v>217.39745962155615</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D5" s="61">
         <f t="shared" si="2"/>
-        <v>-102.68464670045407</v>
+        <v>-101.68464670045407</v>
       </c>
       <c r="E5" s="61">
         <f t="shared" si="3"/>
@@ -20305,11 +20346,11 @@
       </c>
       <c r="C6" s="61">
         <f t="shared" si="1"/>
-        <v>201.39745962155615</v>
+        <v>48.397459621556152</v>
       </c>
       <c r="D6" s="61">
         <f t="shared" si="2"/>
-        <v>-93.447042393420048</v>
+        <v>-92.447042393420048</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" si="3"/>
@@ -20360,11 +20401,11 @@
       </c>
       <c r="C7" s="61">
         <f t="shared" si="1"/>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D7" s="61">
         <f t="shared" si="2"/>
-        <v>-102.68464670045404</v>
+        <v>-101.68464670045404</v>
       </c>
       <c r="E7" s="61">
         <f t="shared" si="3"/>
@@ -20392,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -20414,11 +20455,11 @@
       </c>
       <c r="C8" s="61">
         <f t="shared" si="1"/>
-        <v>169.39745962155621</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" si="2"/>
-        <v>-93.447042393420006</v>
+        <v>-92.447042393420006</v>
       </c>
       <c r="E8" s="61">
         <f t="shared" si="3"/>
@@ -20468,11 +20509,11 @@
       </c>
       <c r="C9" s="61">
         <f t="shared" si="1"/>
-        <v>153.39745962155621</v>
+        <v>0.39745962155620873</v>
       </c>
       <c r="D9" s="61">
         <f t="shared" si="2"/>
-        <v>-102.68464670045401</v>
+        <v>-101.68464670045401</v>
       </c>
       <c r="E9" s="61">
         <f t="shared" si="3"/>
@@ -20499,7 +20540,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-167</v>
+        <f>-54-54-58</f>
+        <v>-166</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -20509,7 +20551,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20519,11 +20561,11 @@
       </c>
       <c r="C10" s="61">
         <f t="shared" si="1"/>
-        <v>153.39745962155624</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D10" s="61">
         <f t="shared" si="2"/>
-        <v>-121.15985531452202</v>
+        <v>-120.15985531452202</v>
       </c>
       <c r="E10" s="61">
         <f t="shared" si="3"/>
@@ -20549,8 +20591,8 @@
       <c r="M10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
+      <c r="N10" s="6">
+        <v>2.0943951023932001</v>
       </c>
       <c r="O10" s="41">
         <v>148</v>
@@ -20569,11 +20611,11 @@
       </c>
       <c r="C11" s="61">
         <f t="shared" si="1"/>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D11" s="61">
         <f t="shared" si="2"/>
-        <v>-130.3974596215561</v>
+        <v>-129.3974596215561</v>
       </c>
       <c r="E11" s="61">
         <f t="shared" si="3"/>
@@ -20619,11 +20661,11 @@
       </c>
       <c r="C12" s="61">
         <f t="shared" si="1"/>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D12" s="61">
         <f t="shared" si="2"/>
-        <v>-121.15985531452206</v>
+        <v>-120.15985531452206</v>
       </c>
       <c r="E12" s="61">
         <f t="shared" si="3"/>
@@ -20667,11 +20709,11 @@
       </c>
       <c r="C13" s="61">
         <f t="shared" si="1"/>
-        <v>169.39745962155621</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D13" s="61">
         <f t="shared" si="2"/>
-        <v>-130.39745962155607</v>
+        <v>-129.39745962155607</v>
       </c>
       <c r="E13" s="61">
         <f t="shared" si="3"/>
@@ -21074,8 +21116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21171,7 +21213,7 @@
       </c>
       <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
-        <v>0</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="O3" s="15">
         <v>100</v>
@@ -21228,7 +21270,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21251,7 +21293,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O5" s="41">
         <v>132</v>
@@ -21266,31 +21308,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="61">
-        <f t="shared" ref="B6" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
+        <f t="shared" ref="B6:B8" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
         <v>19</v>
       </c>
       <c r="C6" s="61">
-        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>233</v>
+        <f t="shared" ref="C6:C8" si="1">((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>96</v>
       </c>
       <c r="D6" s="61">
-        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-36.762395692965995</v>
+        <f t="shared" ref="D6:D8" si="2">((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E6" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
-        <v>-59.999859694228427</v>
+        <f t="shared" ref="E6:E8" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <v>120.00014030577157</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" ref="G6:G10" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G6:G8" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -21321,31 +21363,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="61">
-        <f t="shared" ref="B7:B10" si="2">((ROUND($L7/10,0))-1)*4+MOD($L7,10)+((J7-1)*16)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C7" s="61">
-        <f t="shared" ref="C7:C10" si="3">((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>233</v>
+        <f t="shared" si="1"/>
+        <v>95.999999999999972</v>
       </c>
       <c r="D7" s="61">
-        <f t="shared" ref="D7:D10" si="4">((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
-        <v>-18.287187078898</v>
+        <f t="shared" si="2"/>
+        <v>-8.7128129211019854</v>
       </c>
       <c r="E7" s="61">
-        <f t="shared" ref="E7:E10" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="F7" s="60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -21363,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="O7" s="41">
         <v>148</v>
@@ -21375,31 +21417,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="61">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="61">
+        <f t="shared" si="1"/>
+        <v>79.999999999999972</v>
+      </c>
+      <c r="D8" s="61">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="C8" s="61">
+        <v>-17.950417228135962</v>
+      </c>
+      <c r="E8" s="61">
         <f t="shared" si="3"/>
-        <v>249</v>
-      </c>
-      <c r="D8" s="61">
+        <v>120.00014030577157</v>
+      </c>
+      <c r="F8" s="60">
+        <v>5</v>
+      </c>
+      <c r="G8" s="63">
         <f t="shared" si="4"/>
-        <v>-9.0495827718640101</v>
-      </c>
-      <c r="E8" s="61">
-        <f t="shared" si="5"/>
-        <v>-59.999859694228427</v>
-      </c>
-      <c r="F8" s="60">
-        <v>7</v>
-      </c>
-      <c r="G8" s="63">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -21429,33 +21471,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="61">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="C9" s="61">
-        <f t="shared" si="3"/>
-        <v>249</v>
-      </c>
-      <c r="D9" s="61">
-        <f t="shared" si="4"/>
-        <v>9.4256258422039991</v>
-      </c>
-      <c r="E9" s="61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="60">
-        <v>8</v>
-      </c>
-      <c r="G9" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:20" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="63"/>
       <c r="I9" s="1"/>
       <c r="J9" s="38">
         <v>2</v>
@@ -21470,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-146</v>
+        <v>119</v>
       </c>
       <c r="O9" s="41">
         <v>164</v>
@@ -21480,33 +21503,14 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="61">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="C10" s="61">
-        <f t="shared" si="3"/>
-        <v>233</v>
-      </c>
-      <c r="D10" s="61">
-        <f t="shared" si="4"/>
-        <v>18.66323014923799</v>
-      </c>
-      <c r="E10" s="61">
-        <f t="shared" si="5"/>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F10" s="60">
-        <v>9</v>
-      </c>
-      <c r="G10" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63"/>
       <c r="I10" s="1"/>
       <c r="J10" s="38">
         <v>2</v>
@@ -21989,7 +21993,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22803,7 +22807,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23616,8 +23620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G107" sqref="A3:G107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G164" sqref="A3:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23992,7 +23996,7 @@
       </c>
       <c r="C14" s="75">
         <f>IF('4535A'!C14="", "", '4535A'!C14)</f>
-        <v>200.60254037844379</v>
+        <v>47.602540378443791</v>
       </c>
       <c r="D14" s="75">
         <f>IF('4535A'!D14="", "", '4535A'!D14)</f>
@@ -24022,7 +24026,7 @@
       </c>
       <c r="C15" s="75">
         <f>IF('4535A'!C15="", "", '4535A'!C15)</f>
-        <v>216.60254037844379</v>
+        <v>63.602540378443791</v>
       </c>
       <c r="D15" s="75">
         <f>IF('4535A'!D15="", "", '4535A'!D15)</f>
@@ -24082,7 +24086,7 @@
       </c>
       <c r="C17" s="75">
         <f>IF('4535A'!C17="", "", '4535A'!C17)</f>
-        <v>216.60254037844373</v>
+        <v>63.602540378443734</v>
       </c>
       <c r="D17" s="75">
         <f>IF('4535A'!D17="", "", '4535A'!D17)</f>
@@ -24112,7 +24116,7 @@
       </c>
       <c r="C18" s="75">
         <f>IF('4535A'!C18="", "", '4535A'!C18)</f>
-        <v>200.60254037844376</v>
+        <v>47.602540378443763</v>
       </c>
       <c r="D18" s="75">
         <f>IF('4535A'!D18="", "", '4535A'!D18)</f>
@@ -24142,7 +24146,7 @@
       </c>
       <c r="C19" s="75">
         <f>IF('4535A'!C19="", "", '4535A'!C19)</f>
-        <v>184.60254037844379</v>
+        <v>31.602540378443791</v>
       </c>
       <c r="D19" s="75">
         <f>IF('4535A'!D19="", "", '4535A'!D19)</f>
@@ -24172,7 +24176,7 @@
       </c>
       <c r="C20" s="75">
         <f>IF('4535A'!C20="", "", '4535A'!C20)</f>
-        <v>184.60254037844376</v>
+        <v>31.602540378443763</v>
       </c>
       <c r="D20" s="75">
         <f>IF('4535A'!D20="", "", '4535A'!D20)</f>
@@ -24202,7 +24206,7 @@
       </c>
       <c r="C21" s="75">
         <f>IF('4535A'!C21="", "", '4535A'!C21)</f>
-        <v>168.60254037844379</v>
+        <v>15.602540378443791</v>
       </c>
       <c r="D21" s="75">
         <f>IF('4535A'!D21="", "", '4535A'!D21)</f>
@@ -24232,7 +24236,7 @@
       </c>
       <c r="C22" s="75">
         <f>IF('4535A'!C22="", "", '4535A'!C22)</f>
-        <v>152.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="75">
         <f>IF('4535A'!D22="", "", '4535A'!D22)</f>
@@ -24262,7 +24266,7 @@
       </c>
       <c r="C23" s="75">
         <f>IF('4535A'!C23="", "", '4535A'!C23)</f>
-        <v>168.60254037844382</v>
+        <v>15.60254037844382</v>
       </c>
       <c r="D23" s="75">
         <f>IF('4535A'!D23="", "", '4535A'!D23)</f>
@@ -24292,7 +24296,7 @@
       </c>
       <c r="C24" s="75">
         <f>IF('4535A'!C24="", "", '4535A'!C24)</f>
-        <v>152.60254037844382</v>
+        <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="75">
         <f>IF('4535A'!D24="", "", '4535A'!D24)</f>
@@ -24352,7 +24356,7 @@
       </c>
       <c r="C26" s="76">
         <f>IF('4535A_1'!C3="", "", '4535A_1'!C3)</f>
-        <v>120.6025403784439</v>
+        <v>-32.397459621556102</v>
       </c>
       <c r="D26" s="76">
         <f>IF('4535A_1'!D3="", "", '4535A_1'!D3)</f>
@@ -24382,7 +24386,7 @@
       </c>
       <c r="C27" s="76">
         <f>IF('4535A_1'!C4="", "", '4535A_1'!C4)</f>
-        <v>120.60254037844389</v>
+        <v>-32.397459621556109</v>
       </c>
       <c r="D27" s="76">
         <f>IF('4535A_1'!D4="", "", '4535A_1'!D4)</f>
@@ -24592,7 +24596,7 @@
       </c>
       <c r="C34" s="76">
         <f>IF('4535A_1'!C11="", "", '4535A_1'!C11)</f>
-        <v>136.60254037844385</v>
+        <v>-16.397459621556138</v>
       </c>
       <c r="D34" s="76">
         <f>IF('4535A_1'!D11="", "", '4535A_1'!D11)</f>
@@ -24614,31 +24618,31 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="str">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!A12)</f>
-        <v/>
-      </c>
-      <c r="B35" s="76" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B35" s="76">
         <f>IF('4535A_1'!B12="", "", '4535A_1'!B12)</f>
-        <v/>
-      </c>
-      <c r="C35" s="76" t="str">
+        <v>29</v>
+      </c>
+      <c r="C35" s="76">
         <f>IF('4535A_1'!C12="", "", '4535A_1'!C12)</f>
-        <v/>
-      </c>
-      <c r="D35" s="76" t="str">
+        <v>-16.397459621556152</v>
+      </c>
+      <c r="D35" s="76">
         <f>IF('4535A_1'!D12="", "", '4535A_1'!D12)</f>
-        <v/>
-      </c>
-      <c r="E35" s="76" t="str">
+        <v>-36.790561913613885</v>
+      </c>
+      <c r="E35" s="76">
         <f>IF('4535A_1'!E12="", "", '4535A_1'!E12)</f>
-        <v/>
-      </c>
-      <c r="F35" s="76" t="str">
+        <v>-179.99985969422843</v>
+      </c>
+      <c r="F35" s="76">
         <f>IF('4535A_1'!F12="", "", '4535A_1'!F12)</f>
-        <v/>
-      </c>
-      <c r="G35" s="76" t="str">
+        <v>5</v>
+      </c>
+      <c r="G35" s="76">
         <f>IF('4535A_1'!A12="", "", '4535A_1'!G12)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -25004,31 +25008,31 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="str">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!A25)</f>
-        <v/>
-      </c>
-      <c r="B48" s="76" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B48" s="76">
         <f>IF('4535A_1'!B25="", "", '4535A_1'!B25)</f>
-        <v/>
-      </c>
-      <c r="C48" s="76" t="str">
+        <v>31</v>
+      </c>
+      <c r="C48" s="76">
         <f>IF('4535A_1'!C25="", "", '4535A_1'!C25)</f>
-        <v/>
-      </c>
-      <c r="D48" s="76" t="str">
+        <v>-16.397459621556116</v>
+      </c>
+      <c r="D48" s="76">
         <f>IF('4535A_1'!D25="", "", '4535A_1'!D25)</f>
-        <v/>
-      </c>
-      <c r="E48" s="76" t="str">
+        <v>18.635063928590171</v>
+      </c>
+      <c r="E48" s="76">
         <f>IF('4535A_1'!E25="", "", '4535A_1'!E25)</f>
-        <v/>
-      </c>
-      <c r="F48" s="76" t="str">
+        <v>59.999579082684676</v>
+      </c>
+      <c r="F48" s="76">
         <f>IF('4535A_1'!F25="", "", '4535A_1'!F25)</f>
-        <v/>
-      </c>
-      <c r="G48" s="76" t="str">
+        <v>5</v>
+      </c>
+      <c r="G48" s="76">
         <f>IF('4535A_1'!A25="", "", '4535A_1'!G25)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25372,11 +25376,11 @@
       </c>
       <c r="C60" s="77">
         <f>IF('4535_1'!C14="", "", '4535_1'!C14)</f>
-        <v>169.39745962155624</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D60" s="77">
         <f>IF('4535_1'!D14="", "", '4535_1'!D14)</f>
-        <v>-37.872668235624062</v>
+        <v>-35.872668235624062</v>
       </c>
       <c r="E60" s="77">
         <f>IF('4535_1'!E14="", "", '4535_1'!E14)</f>
@@ -25402,11 +25406,11 @@
       </c>
       <c r="C61" s="77">
         <f>IF('4535_1'!C15="", "", '4535_1'!C15)</f>
-        <v>153.39745962155624</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D61" s="77">
         <f>IF('4535_1'!D15="", "", '4535_1'!D15)</f>
-        <v>-47.110272542658066</v>
+        <v>-45.110272542658066</v>
       </c>
       <c r="E61" s="77">
         <f>IF('4535_1'!E15="", "", '4535_1'!E15)</f>
@@ -25462,11 +25466,11 @@
       </c>
       <c r="C63" s="77">
         <f>IF('4535_1'!C17="", "", '4535_1'!C17)</f>
-        <v>153.39745962155627</v>
+        <v>0.39745962155626557</v>
       </c>
       <c r="D63" s="77">
         <f>IF('4535_1'!D17="", "", '4535_1'!D17)</f>
-        <v>-65.585481156726075</v>
+        <v>-63.585481156726075</v>
       </c>
       <c r="E63" s="77">
         <f>IF('4535_1'!E17="", "", '4535_1'!E17)</f>
@@ -25492,11 +25496,11 @@
       </c>
       <c r="C64" s="77">
         <f>IF('4535_1'!C18="", "", '4535_1'!C18)</f>
-        <v>169.39745962155624</v>
+        <v>16.397459621556237</v>
       </c>
       <c r="D64" s="77">
         <f>IF('4535_1'!D18="", "", '4535_1'!D18)</f>
-        <v>-74.823085463760108</v>
+        <v>-72.823085463760108</v>
       </c>
       <c r="E64" s="77">
         <f>IF('4535_1'!E18="", "", '4535_1'!E18)</f>
@@ -25522,11 +25526,11 @@
       </c>
       <c r="C65" s="77">
         <f>IF('4535_1'!C19="", "", '4535_1'!C19)</f>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D65" s="77">
         <f>IF('4535_1'!D19="", "", '4535_1'!D19)</f>
-        <v>-47.110272542658095</v>
+        <v>-45.110272542658095</v>
       </c>
       <c r="E65" s="77">
         <f>IF('4535_1'!E19="", "", '4535_1'!E19)</f>
@@ -25541,7 +25545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="str">
         <f>IF('4535_1'!A20="", "", '4535_1'!A20)</f>
         <v>triangle_10pad</v>
@@ -25552,11 +25556,11 @@
       </c>
       <c r="C66" s="77">
         <f>IF('4535_1'!C20="", "", '4535_1'!C20)</f>
-        <v>185.39745962155624</v>
+        <v>32.397459621556237</v>
       </c>
       <c r="D66" s="77">
         <f>IF('4535_1'!D20="", "", '4535_1'!D20)</f>
-        <v>-65.585481156726104</v>
+        <v>-63.585481156726104</v>
       </c>
       <c r="E66" s="77">
         <f>IF('4535_1'!E20="", "", '4535_1'!E20)</f>
@@ -25571,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="str">
         <f>IF('4535_1'!A21="", "", '4535_1'!A21)</f>
         <v>triangle_10pad</v>
@@ -25582,11 +25586,11 @@
       </c>
       <c r="C67" s="77">
         <f>IF('4535_1'!C21="", "", '4535_1'!C21)</f>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D67" s="77">
         <f>IF('4535_1'!D21="", "", '4535_1'!D21)</f>
-        <v>-74.823085463760137</v>
+        <v>-72.823085463760137</v>
       </c>
       <c r="E67" s="77">
         <f>IF('4535_1'!E21="", "", '4535_1'!E21)</f>
@@ -25601,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="str">
         <f>IF('4535_1'!A22="", "", '4535_1'!A22)</f>
         <v>triangle_10pad</v>
@@ -25612,11 +25616,11 @@
       </c>
       <c r="C68" s="77">
         <f>IF('4535_1'!C22="", "", '4535_1'!C22)</f>
-        <v>217.39745962155621</v>
+        <v>64.397459621556209</v>
       </c>
       <c r="D68" s="77">
         <f>IF('4535_1'!D22="", "", '4535_1'!D22)</f>
-        <v>-65.585481156726132</v>
+        <v>-63.585481156726132</v>
       </c>
       <c r="E68" s="77">
         <f>IF('4535_1'!E22="", "", '4535_1'!E22)</f>
@@ -25631,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="str">
         <f>IF('4535_1'!A23="", "", '4535_1'!A23)</f>
         <v>triangle_10pad</v>
@@ -25642,11 +25646,11 @@
       </c>
       <c r="C69" s="77">
         <f>IF('4535_1'!C23="", "", '4535_1'!C23)</f>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D69" s="77">
         <f>IF('4535_1'!D23="", "", '4535_1'!D23)</f>
-        <v>-37.87266823562409</v>
+        <v>-35.87266823562409</v>
       </c>
       <c r="E69" s="77">
         <f>IF('4535_1'!E23="", "", '4535_1'!E23)</f>
@@ -25661,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="str">
         <f>IF('4535_1'!A24="", "", '4535_1'!A24)</f>
         <v>triangle_10pad</v>
@@ -25672,11 +25676,11 @@
       </c>
       <c r="C70" s="77">
         <f>IF('4535_1'!C24="", "", '4535_1'!C24)</f>
-        <v>217.39745962155618</v>
+        <v>64.39745962155618</v>
       </c>
       <c r="D70" s="77">
         <f>IF('4535_1'!D24="", "", '4535_1'!D24)</f>
-        <v>-47.110272542658123</v>
+        <v>-45.110272542658123</v>
       </c>
       <c r="E70" s="77">
         <f>IF('4535_1'!E24="", "", '4535_1'!E24)</f>
@@ -25691,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="str">
         <f>IF('4535_1'!A25="", "", '4535_1'!A25)</f>
         <v/>
@@ -25762,11 +25766,11 @@
       </c>
       <c r="C73" s="78">
         <f>IF('4535_2'!C4="", "", '4535_2'!C4)</f>
-        <v>217.39745962155615</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D73" s="78">
         <f>IF('4535_2'!D4="", "", '4535_2'!D4)</f>
-        <v>-121.15985531452209</v>
+        <v>-120.15985531452209</v>
       </c>
       <c r="E73" s="78">
         <f>IF('4535_2'!E4="", "", '4535_2'!E4)</f>
@@ -25792,11 +25796,11 @@
       </c>
       <c r="C74" s="78">
         <f>IF('4535_2'!C5="", "", '4535_2'!C5)</f>
-        <v>217.39745962155615</v>
+        <v>64.397459621556152</v>
       </c>
       <c r="D74" s="78">
         <f>IF('4535_2'!D5="", "", '4535_2'!D5)</f>
-        <v>-102.68464670045407</v>
+        <v>-101.68464670045407</v>
       </c>
       <c r="E74" s="78">
         <f>IF('4535_2'!E5="", "", '4535_2'!E5)</f>
@@ -25822,11 +25826,11 @@
       </c>
       <c r="C75" s="78">
         <f>IF('4535_2'!C6="", "", '4535_2'!C6)</f>
-        <v>201.39745962155615</v>
+        <v>48.397459621556152</v>
       </c>
       <c r="D75" s="78">
         <f>IF('4535_2'!D6="", "", '4535_2'!D6)</f>
-        <v>-93.447042393420048</v>
+        <v>-92.447042393420048</v>
       </c>
       <c r="E75" s="78">
         <f>IF('4535_2'!E6="", "", '4535_2'!E6)</f>
@@ -25852,11 +25856,11 @@
       </c>
       <c r="C76" s="78">
         <f>IF('4535_2'!C7="", "", '4535_2'!C7)</f>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D76" s="78">
         <f>IF('4535_2'!D7="", "", '4535_2'!D7)</f>
-        <v>-102.68464670045404</v>
+        <v>-101.68464670045404</v>
       </c>
       <c r="E76" s="78">
         <f>IF('4535_2'!E7="", "", '4535_2'!E7)</f>
@@ -25882,11 +25886,11 @@
       </c>
       <c r="C77" s="78">
         <f>IF('4535_2'!C8="", "", '4535_2'!C8)</f>
-        <v>169.39745962155621</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D77" s="78">
         <f>IF('4535_2'!D8="", "", '4535_2'!D8)</f>
-        <v>-93.447042393420006</v>
+        <v>-92.447042393420006</v>
       </c>
       <c r="E77" s="78">
         <f>IF('4535_2'!E8="", "", '4535_2'!E8)</f>
@@ -25912,11 +25916,11 @@
       </c>
       <c r="C78" s="78">
         <f>IF('4535_2'!C9="", "", '4535_2'!C9)</f>
-        <v>153.39745962155621</v>
+        <v>0.39745962155620873</v>
       </c>
       <c r="D78" s="78">
         <f>IF('4535_2'!D9="", "", '4535_2'!D9)</f>
-        <v>-102.68464670045401</v>
+        <v>-101.68464670045401</v>
       </c>
       <c r="E78" s="78">
         <f>IF('4535_2'!E9="", "", '4535_2'!E9)</f>
@@ -25942,11 +25946,11 @@
       </c>
       <c r="C79" s="78">
         <f>IF('4535_2'!C10="", "", '4535_2'!C10)</f>
-        <v>153.39745962155624</v>
+        <v>0.39745962155623715</v>
       </c>
       <c r="D79" s="78">
         <f>IF('4535_2'!D10="", "", '4535_2'!D10)</f>
-        <v>-121.15985531452202</v>
+        <v>-120.15985531452202</v>
       </c>
       <c r="E79" s="78">
         <f>IF('4535_2'!E10="", "", '4535_2'!E10)</f>
@@ -25972,11 +25976,11 @@
       </c>
       <c r="C80" s="78">
         <f>IF('4535_2'!C11="", "", '4535_2'!C11)</f>
-        <v>201.39745962155621</v>
+        <v>48.397459621556209</v>
       </c>
       <c r="D80" s="78">
         <f>IF('4535_2'!D11="", "", '4535_2'!D11)</f>
-        <v>-130.3974596215561</v>
+        <v>-129.3974596215561</v>
       </c>
       <c r="E80" s="78">
         <f>IF('4535_2'!E11="", "", '4535_2'!E11)</f>
@@ -26002,11 +26006,11 @@
       </c>
       <c r="C81" s="78">
         <f>IF('4535_2'!C12="", "", '4535_2'!C12)</f>
-        <v>185.39745962155621</v>
+        <v>32.397459621556209</v>
       </c>
       <c r="D81" s="78">
         <f>IF('4535_2'!D12="", "", '4535_2'!D12)</f>
-        <v>-121.15985531452206</v>
+        <v>-120.15985531452206</v>
       </c>
       <c r="E81" s="78">
         <f>IF('4535_2'!E12="", "", '4535_2'!E12)</f>
@@ -26032,11 +26036,11 @@
       </c>
       <c r="C82" s="78">
         <f>IF('4535_2'!C13="", "", '4535_2'!C13)</f>
-        <v>169.39745962155621</v>
+        <v>16.397459621556209</v>
       </c>
       <c r="D82" s="78">
         <f>IF('4535_2'!D13="", "", '4535_2'!D13)</f>
-        <v>-130.39745962155607</v>
+        <v>-129.39745962155607</v>
       </c>
       <c r="E82" s="78">
         <f>IF('4535_2'!E13="", "", '4535_2'!E13)</f>
@@ -26542,15 +26546,15 @@
       </c>
       <c r="C99" s="79">
         <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="D99" s="79">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>-36.762395692965995</v>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E99" s="79">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F99" s="79">
         <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
@@ -26572,19 +26576,19 @@
       </c>
       <c r="C100" s="79">
         <f>IF('4535A_2'!C7="", "", '4535A_2'!C7)</f>
-        <v>233</v>
+        <v>95.999999999999972</v>
       </c>
       <c r="D100" s="79">
         <f>IF('4535A_2'!D7="", "", '4535A_2'!D7)</f>
-        <v>-18.287187078898</v>
+        <v>-8.7128129211019854</v>
       </c>
       <c r="E100" s="79">
         <f>IF('4535A_2'!E7="", "", '4535A_2'!E7)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F100" s="79">
         <f>IF('4535A_2'!F7="", "", '4535A_2'!F7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G100" s="79">
         <f>IF('4535A_2'!G7="", "", '4535A_2'!G7)</f>
@@ -26602,19 +26606,19 @@
       </c>
       <c r="C101" s="79">
         <f>IF('4535A_2'!C8="", "", '4535A_2'!C8)</f>
-        <v>249</v>
+        <v>79.999999999999972</v>
       </c>
       <c r="D101" s="79">
         <f>IF('4535A_2'!D8="", "", '4535A_2'!D8)</f>
-        <v>-9.0495827718640101</v>
+        <v>-17.950417228135962</v>
       </c>
       <c r="E101" s="79">
         <f>IF('4535A_2'!E8="", "", '4535A_2'!E8)</f>
-        <v>-59.999859694228427</v>
+        <v>120.00014030577157</v>
       </c>
       <c r="F101" s="79">
         <f>IF('4535A_2'!F8="", "", '4535A_2'!F8)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G101" s="79">
         <f>IF('4535A_2'!G8="", "", '4535A_2'!G8)</f>
@@ -26623,62 +26627,62 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="68" t="str">
-        <f>IF('4535A_2'!A9="", "", '4535A_2'!A9)</f>
+        <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B102" s="79">
-        <f>IF('4535A_2'!B9="", "", '4535A_2'!B9)</f>
-        <v>22</v>
+        <f>IF('4535A_2'!B6="", "", '4535A_2'!B6)</f>
+        <v>19</v>
       </c>
       <c r="C102" s="79">
-        <f>IF('4535A_2'!C9="", "", '4535A_2'!C9)</f>
-        <v>249</v>
+        <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
+        <v>96</v>
       </c>
       <c r="D102" s="79">
-        <f>IF('4535A_2'!D9="", "", '4535A_2'!D9)</f>
-        <v>9.4256258422039991</v>
+        <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
+        <v>9.7623956929660096</v>
       </c>
       <c r="E102" s="79">
-        <f>IF('4535A_2'!E9="", "", '4535A_2'!E9)</f>
-        <v>0</v>
+        <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
+        <v>120.00014030577157</v>
       </c>
       <c r="F102" s="79">
-        <f>IF('4535A_2'!F9="", "", '4535A_2'!F9)</f>
-        <v>8</v>
+        <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
+        <v>5</v>
       </c>
       <c r="G102" s="79">
-        <f>IF('4535A_2'!G9="", "", '4535A_2'!G9)</f>
+        <f>IF('4535A_2'!G6="", "", '4535A_2'!G6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="str">
         <f>IF('4535A_2'!A10="", "", '4535A_2'!A10)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B103" s="79">
+        <v/>
+      </c>
+      <c r="B103" s="79" t="str">
         <f>IF('4535A_2'!B10="", "", '4535A_2'!B10)</f>
-        <v>23</v>
-      </c>
-      <c r="C103" s="79">
+        <v/>
+      </c>
+      <c r="C103" s="79" t="str">
         <f>IF('4535A_2'!C10="", "", '4535A_2'!C10)</f>
-        <v>233</v>
-      </c>
-      <c r="D103" s="79">
+        <v/>
+      </c>
+      <c r="D103" s="79" t="str">
         <f>IF('4535A_2'!D10="", "", '4535A_2'!D10)</f>
-        <v>18.66323014923799</v>
-      </c>
-      <c r="E103" s="79">
+        <v/>
+      </c>
+      <c r="E103" s="79" t="str">
         <f>IF('4535A_2'!E10="", "", '4535A_2'!E10)</f>
-        <v>59.999859694228427</v>
-      </c>
-      <c r="F103" s="79">
+        <v/>
+      </c>
+      <c r="F103" s="79" t="str">
         <f>IF('4535A_2'!F10="", "", '4535A_2'!F10)</f>
-        <v>9</v>
-      </c>
-      <c r="G103" s="79">
+        <v/>
+      </c>
+      <c r="G103" s="79" t="str">
         <f>IF('4535A_2'!G10="", "", '4535A_2'!G10)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">

--- a/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="35">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>CARD ID 11</t>
   </si>
+  <si>
+    <t>Triangle # for the MTB</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +294,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +675,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +828,11 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -840,13 +860,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>979316</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>181216</xdr:rowOff>
@@ -858,8 +878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10908232" y="2425506"/>
-          <a:ext cx="4358584" cy="4042210"/>
+          <a:off x="12208115" y="2425506"/>
+          <a:ext cx="4358583" cy="4042210"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4563288"/>
         </a:xfrm>
@@ -1864,13 +1884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1998712</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
@@ -2943,13 +2963,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2961,8 +2981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10214179" y="0"/>
-          <a:ext cx="4018973" cy="0"/>
+          <a:off x="11177885" y="0"/>
+          <a:ext cx="4018972" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3967,13 +3987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534786</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -3985,8 +4005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10205462" y="2324653"/>
-          <a:ext cx="4354092" cy="3716684"/>
+          <a:off x="11169168" y="2324653"/>
+          <a:ext cx="4354091" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -4991,13 +5011,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>5603</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>162485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>173691</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>61633</xdr:rowOff>
@@ -5126,13 +5146,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5144,7 +5164,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11032208" y="0"/>
+          <a:off x="11995914" y="0"/>
           <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -6150,13 +6170,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534787</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -6168,7 +6188,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10989875" y="2324653"/>
+          <a:off x="11953581" y="2324653"/>
           <a:ext cx="4388331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -7174,13 +7194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1965094</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>39447</xdr:rowOff>
@@ -8253,13 +8273,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -8271,8 +8291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12051232" y="2324653"/>
-          <a:ext cx="4544680" cy="3705478"/>
+          <a:off x="13014938" y="2324653"/>
+          <a:ext cx="4544680" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -9277,13 +9297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>396270</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>173917</xdr:rowOff>
@@ -10356,13 +10376,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10374,7 +10394,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10921270" y="0"/>
+          <a:off x="11883295" y="0"/>
           <a:ext cx="4034661" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -11380,13 +11400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>41728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>522941</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -11398,8 +11418,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10957378" y="2255737"/>
-          <a:ext cx="4519813" cy="3705478"/>
+          <a:off x="11919403" y="2312887"/>
+          <a:ext cx="4519813" cy="3715003"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -12404,13 +12424,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2342028</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>145679</xdr:rowOff>
@@ -12520,13 +12540,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12538,8 +12558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10684826" y="0"/>
-          <a:ext cx="4030179" cy="0"/>
+          <a:off x="11648532" y="0"/>
+          <a:ext cx="4030178" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -13544,13 +13564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>41728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>522941</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -13562,8 +13582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10720934" y="2324653"/>
-          <a:ext cx="4515331" cy="3716684"/>
+          <a:off x="11684640" y="2324653"/>
+          <a:ext cx="4515330" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -14573,13 +14593,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -14591,8 +14611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942561" y="0"/>
-          <a:ext cx="4119826" cy="0"/>
+          <a:off x="11648532" y="0"/>
+          <a:ext cx="4030178" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -15597,13 +15617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>142581</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>105888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>18677</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1366</xdr:rowOff>
@@ -15615,8 +15635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11079522" y="2248453"/>
-          <a:ext cx="4609461" cy="3642725"/>
+          <a:off x="11785493" y="2279829"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -16909,7 +16929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
@@ -16928,24 +16948,25 @@
     <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -16978,20 +16999,23 @@
       <c r="L2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -17010,30 +17034,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -17052,27 +17080,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -17091,26 +17123,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -17129,24 +17165,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -17165,24 +17205,28 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <f>-217+128-64</f>
         <v>-153</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -17201,23 +17245,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -17235,21 +17283,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -17267,20 +17319,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -17298,20 +17354,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>0</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -17329,18 +17389,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -17358,42 +17422,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="61">
-        <f t="shared" ref="B14:B15" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
+        <f>((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
         <v>9</v>
       </c>
       <c r="C14" s="61">
-        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
         <v>47.602540378443791</v>
       </c>
       <c r="D14" s="61">
-        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
         <v>-18.127331764375867</v>
       </c>
       <c r="E14" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F14" s="60">
         <v>5</v>
       </c>
       <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G14:G15" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -17406,35 +17474,39 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="61">
-        <f t="shared" si="0"/>
+        <f>((ROUND($L15/10,0))-1)*4+MOD($L15,10)+((J15-1)*16)</f>
         <v>6</v>
       </c>
       <c r="C15" s="61">
-        <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
         <v>63.602540378443791</v>
       </c>
       <c r="D15" s="61">
-        <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
         <v>-8.8897274573418628</v>
       </c>
       <c r="E15" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
         <v>-60</v>
       </c>
       <c r="F15" s="60">
@@ -17454,18 +17526,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -17483,42 +17559,46 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="61">
-        <f t="shared" ref="B17:B24" si="2">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
+        <f>((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
         <v>3</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C17:C24" si="2">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
         <v>63.602540378443734</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D17:D24" si="3">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.5854811567261606</v>
       </c>
       <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E17:E24" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" ref="G17:G24" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -17531,42 +17611,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="61">
+        <f>((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*16)</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="61">
+        <v>47.602540378443763</v>
+      </c>
+      <c r="D18" s="61">
         <f t="shared" si="3"/>
-        <v>47.602540378443763</v>
-      </c>
-      <c r="D18" s="61">
+        <v>18.823085463760165</v>
+      </c>
+      <c r="E18" s="61">
         <f t="shared" si="4"/>
-        <v>18.823085463760165</v>
-      </c>
-      <c r="E18" s="61">
-        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
       </c>
       <c r="G18" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -17579,42 +17663,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="61">
+        <f>((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="61">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="61">
+        <v>31.602540378443791</v>
+      </c>
+      <c r="D19" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443791</v>
-      </c>
-      <c r="D19" s="61">
+        <v>-8.8897274573418485</v>
+      </c>
+      <c r="E19" s="61">
         <f t="shared" si="4"/>
-        <v>-8.8897274573418485</v>
-      </c>
-      <c r="E19" s="61">
-        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -17627,42 +17715,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="61">
+        <f>((ROUND($L20/10,0))-1)*4+MOD($L20,10)+((J20-1)*16)</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="61">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="61">
+        <v>31.602540378443763</v>
+      </c>
+      <c r="D20" s="61">
         <f t="shared" si="3"/>
-        <v>31.602540378443763</v>
-      </c>
-      <c r="D20" s="61">
+        <v>9.5854811567261606</v>
+      </c>
+      <c r="E20" s="61">
         <f t="shared" si="4"/>
-        <v>9.5854811567261606</v>
-      </c>
-      <c r="E20" s="61">
-        <f t="shared" si="5"/>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
       </c>
       <c r="G20" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -17675,42 +17767,46 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="61">
+        <f>((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="61">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="61">
+        <v>15.602540378443791</v>
+      </c>
+      <c r="D21" s="61">
         <f t="shared" si="3"/>
-        <v>15.602540378443791</v>
-      </c>
-      <c r="D21" s="61">
+        <v>18.823085463760187</v>
+      </c>
+      <c r="E21" s="61">
         <f t="shared" si="4"/>
-        <v>18.823085463760187</v>
-      </c>
-      <c r="E21" s="61">
-        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
       </c>
       <c r="G21" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -17723,42 +17819,46 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="61">
+        <f>((ROUND($L22/10,0))-1)*4+MOD($L22,10)+((J22-1)*16)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="61">
+        <v>-0.39745962155618031</v>
+      </c>
+      <c r="D22" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
-      </c>
-      <c r="D22" s="61">
+        <v>9.585481156726182</v>
+      </c>
+      <c r="E22" s="61">
         <f t="shared" si="4"/>
-        <v>9.585481156726182</v>
-      </c>
-      <c r="E22" s="61">
-        <f t="shared" si="5"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -17771,42 +17871,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="61">
+        <f>((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="61">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C23" s="61">
+        <v>15.60254037844382</v>
+      </c>
+      <c r="D23" s="61">
         <f t="shared" si="3"/>
-        <v>15.60254037844382</v>
-      </c>
-      <c r="D23" s="61">
+        <v>-18.127331764375853</v>
+      </c>
+      <c r="E23" s="61">
         <f t="shared" si="4"/>
-        <v>-18.127331764375853</v>
-      </c>
-      <c r="E23" s="61">
-        <f t="shared" si="5"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
       </c>
       <c r="G23" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -17819,42 +17923,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="61">
+        <f>((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
+        <v>14</v>
+      </c>
+      <c r="C24" s="61">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="C24" s="61">
+        <v>-0.39745962155618031</v>
+      </c>
+      <c r="D24" s="61">
         <f t="shared" si="3"/>
-        <v>-0.39745962155618031</v>
-      </c>
-      <c r="D24" s="61">
+        <v>-8.8897274573418343</v>
+      </c>
+      <c r="E24" s="61">
         <f t="shared" si="4"/>
-        <v>-8.8897274573418343</v>
-      </c>
-      <c r="E24" s="61">
-        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
       </c>
       <c r="G24" s="63">
-        <f t="shared" si="6"/>
+        <f>IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -17867,18 +17975,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -17896,270 +18008,298 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J28" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="7:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -18168,6 +18308,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18178,10 +18319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="U40" sqref="U39:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18198,20 +18339,21 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -18244,20 +18386,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>26</v>
       </c>
@@ -18266,22 +18411,22 @@
         <v>16</v>
       </c>
       <c r="C3" s="61">
-        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P3*COS($O$3)-Q3*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-32.397459621556102</v>
       </c>
       <c r="D3" s="61">
-        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P3*SIN($O$3)+Q3*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.3974596215561519</v>
       </c>
       <c r="E3" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N3/3.1416*180)+$O$5)</f>
         <v>-239.99971938845687</v>
       </c>
       <c r="F3" s="60">
         <v>5</v>
       </c>
       <c r="G3" s="63">
-        <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G4" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -18295,30 +18440,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="84">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>26</v>
       </c>
@@ -18327,15 +18476,15 @@
         <v>17</v>
       </c>
       <c r="C4" s="61">
-        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-32.397459621556109</v>
       </c>
       <c r="D4" s="61">
-        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>-9.0777489925118857</v>
       </c>
       <c r="E4" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>-179.99985969422843</v>
       </c>
       <c r="F4" s="60">
@@ -18356,27 +18505,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="2">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="33"/>
       <c r="C5" s="23"/>
@@ -18395,26 +18548,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -18433,24 +18590,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -18469,24 +18630,28 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <f>-37-16-16</f>
         <v>-69</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -18505,23 +18670,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -18539,21 +18708,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -18571,44 +18744,48 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="61">
-        <f t="shared" ref="B11:B12" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f t="shared" ref="B11:B12" si="3">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
       <c r="C11" s="61">
-        <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-16.397459621556138</v>
       </c>
       <c r="D11" s="61">
-        <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
         <v>-18.315353299545848</v>
       </c>
       <c r="E11" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
         <v>-120</v>
       </c>
       <c r="F11" s="60">
         <v>5</v>
       </c>
       <c r="G11" s="63">
-        <f t="shared" ref="G11:G12" si="3">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11:G12" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -18621,44 +18798,48 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>16</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C12" s="61">
-        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P12*COS($O$3)-Q12*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-16.397459621556152</v>
       </c>
       <c r="D12" s="61">
-        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P12*SIN($O$3)+Q12*COS($O$3)+$O$9)*$S$4)</f>
         <v>-36.790561913613885</v>
       </c>
       <c r="E12" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N12/3.1416*180)+$O$5)</f>
         <v>-179.99985969422843</v>
       </c>
       <c r="F12" s="60">
         <v>5</v>
       </c>
       <c r="G12" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -18671,18 +18852,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -18700,18 +18885,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -18729,18 +18918,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -18758,18 +18951,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="33"/>
       <c r="C16" s="23"/>
@@ -18787,18 +18984,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -18816,18 +19017,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -18845,18 +19050,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -18874,18 +19083,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -18903,18 +19116,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -18932,18 +19149,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -18961,18 +19182,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -18990,18 +19215,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -19019,42 +19248,46 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="61">
-        <f t="shared" ref="B25" si="4">((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*16)</f>
+        <f t="shared" ref="B25" si="5">((ROUND($L25/10,0))-1)*4+MOD($L25,10)+((J25-1)*16)</f>
         <v>31</v>
       </c>
       <c r="C25" s="61">
-        <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P25*COS($O$3)-Q25*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-16.397459621556116</v>
       </c>
       <c r="D25" s="61">
-        <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P25*SIN($O$3)+Q25*COS($O$3)+$O$9)*$S$4)</f>
         <v>18.635063928590171</v>
       </c>
       <c r="E25" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N25/3.1416*180)+$O$5)</f>
         <v>59.999579082684676</v>
       </c>
       <c r="F25" s="60">
         <v>5</v>
       </c>
       <c r="G25" s="63">
-        <f t="shared" ref="G25" si="5">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G25" si="6">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -19067,29 +19300,108 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="56"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19100,10 +19412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19117,20 +19429,21 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -19163,20 +19476,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -19195,30 +19511,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -19237,27 +19557,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="33"/>
       <c r="C5" s="61"/>
@@ -19276,26 +19600,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -19314,24 +19642,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -19350,23 +19682,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>217</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -19385,23 +19721,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -19419,22 +19759,26 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f>-46-8</f>
         <v>-54</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -19452,20 +19796,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -19483,21 +19831,25 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -19515,18 +19867,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -19544,42 +19900,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="61">
-        <f t="shared" ref="B14:B15" si="0">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
+        <f t="shared" ref="B14:B15" si="1">((ROUND($L14/10,0))-1)*4+MOD($L14,10)+((J14-1)*16)</f>
         <v>41</v>
       </c>
       <c r="C14" s="61">
-        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P14*COS($O$3)-Q14*SIN($O$3)+$O$7)*$S$3)</f>
         <v>16.397459621556237</v>
       </c>
       <c r="D14" s="61">
-        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P14*SIN($O$3)+Q14*COS($O$3)+$O$9)*$S$4)</f>
         <v>-35.872668235624062</v>
       </c>
       <c r="E14" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N14/3.1416*180)+$O$5)</f>
         <v>179.99985969422843</v>
       </c>
       <c r="F14" s="60">
         <v>5</v>
       </c>
       <c r="G14" s="63">
-        <f t="shared" ref="G14:G15" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G14:G15" si="2">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -19592,42 +19952,46 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="84">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C15" s="61">
-        <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P15*COS($O$3)-Q15*SIN($O$3)+$O$7)*$S$3)</f>
         <v>0.39745962155623715</v>
       </c>
       <c r="D15" s="61">
-        <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P15*SIN($O$3)+Q15*COS($O$3)+$O$9)*$S$4)</f>
         <v>-45.110272542658066</v>
       </c>
       <c r="E15" s="61">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N15/3.1416*180)+$O$5)</f>
         <v>120</v>
       </c>
       <c r="F15" s="60">
         <v>5</v>
       </c>
       <c r="G15" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -19640,18 +20004,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="84">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -19669,42 +20037,46 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="61">
-        <f t="shared" ref="B17:B24" si="2">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
+        <f t="shared" ref="B17:B24" si="3">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
         <v>35</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="3">((+O17*COS($N$3)-P17*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C17:C24" si="4">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
         <v>0.39745962155626557</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="4">((O17*SIN($N$3)+P17*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D17:D24" si="5">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
         <v>-63.585481156726075</v>
       </c>
       <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M17/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E17:E24" si="6">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
         <v>179.99985969422843</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" ref="G17:G24" si="6">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G17:G24" si="7">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -19717,42 +20089,46 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C18" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.397459621556237</v>
       </c>
       <c r="D18" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-72.823085463760108</v>
       </c>
       <c r="E18" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
       </c>
       <c r="G18" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -19765,42 +20141,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C19" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.397459621556209</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-45.110272542658095</v>
       </c>
       <c r="E19" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -19813,42 +20193,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="84">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C20" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.397459621556237</v>
       </c>
       <c r="D20" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-63.585481156726104</v>
       </c>
       <c r="E20" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179.99985969422843</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
       </c>
       <c r="G20" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -19861,42 +20245,46 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.397459621556209</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-72.823085463760137</v>
       </c>
       <c r="E21" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
       </c>
       <c r="G21" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -19909,42 +20297,46 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="84">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.397459621556209</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-63.585481156726132</v>
       </c>
       <c r="E22" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>299.9995790826847</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -19957,42 +20349,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C23" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.397459621556209</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-35.87266823562409</v>
       </c>
       <c r="E23" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>299.9995790826847</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
       </c>
       <c r="G23" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -20005,42 +20401,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.39745962155618</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-45.110272542658123</v>
       </c>
       <c r="E24" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239.99971938845687</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
       </c>
       <c r="G24" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -20053,18 +20453,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="84">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -20082,26 +20486,105 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20112,10 +20595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M4" sqref="M4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20125,15 +20608,16 @@
     <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -20166,20 +20650,23 @@
       <c r="L2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -20198,30 +20685,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>2.0943951023931953</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>26</v>
       </c>
@@ -20230,22 +20721,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="61">
-        <f t="shared" ref="C4:C13" si="1">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C4:C13" si="1">((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>64.397459621556152</v>
       </c>
       <c r="D4" s="61">
-        <f t="shared" ref="D4:D13" si="2">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D4:D13" si="2">((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>-120.15985531452209</v>
       </c>
       <c r="E4" s="61">
-        <f t="shared" ref="E4:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E4:E13" si="3">IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>60.000140305771573</v>
       </c>
       <c r="F4" s="60">
         <v>5</v>
       </c>
       <c r="G4" s="63">
-        <f t="shared" ref="G4:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G4:G13" si="4">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -20259,27 +20750,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="84">
+        <f t="shared" ref="M4:M25" si="5">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>26</v>
       </c>
@@ -20317,26 +20812,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="84">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -20374,24 +20873,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
@@ -20429,23 +20932,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>217</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
@@ -20483,23 +20990,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>26</v>
       </c>
@@ -20536,22 +21047,26 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="84">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f>-54-54-58</f>
         <v>-166</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
@@ -20588,20 +21103,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="84">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>26</v>
       </c>
@@ -20638,20 +21157,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="84">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>48</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>26</v>
       </c>
@@ -20688,18 +21211,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="84">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>26</v>
       </c>
@@ -20736,18 +21263,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="84">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -20765,18 +21296,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -20794,18 +21329,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -20823,18 +21362,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -20852,18 +21395,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -20881,18 +21428,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -20910,18 +21461,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -20939,18 +21494,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -20968,18 +21527,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -20997,18 +21560,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21026,18 +21593,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21055,18 +21626,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="26"/>
@@ -21084,26 +21659,105 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J29" s="73" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21114,10 +21768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21130,20 +21784,21 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -21176,20 +21831,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -21208,30 +21866,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -21250,27 +21912,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -21289,50 +21955,54 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>180</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="61">
-        <f t="shared" ref="B6:B8" si="0">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
+        <f t="shared" ref="B6:B8" si="1">((ROUND($L6/10,0))-1)*4+MOD($L6,10)+((J6-1)*16)</f>
         <v>19</v>
       </c>
       <c r="C6" s="61">
-        <f t="shared" ref="C6:C8" si="1">((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C6:C8" si="2">((+P6*COS($O$3)-Q6*SIN($O$3)+$O$7)*$S$3)</f>
         <v>96</v>
       </c>
       <c r="D6" s="61">
-        <f t="shared" ref="D6:D8" si="2">((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D6:D8" si="3">((P6*SIN($O$3)+Q6*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.7623956929660096</v>
       </c>
       <c r="E6" s="61">
-        <f t="shared" ref="E6:E8" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E6:E8" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N6/3.1416*180)+$O$5)</f>
         <v>120.00014030577157</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
       </c>
       <c r="G6" s="63">
-        <f t="shared" ref="G6:G8" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G6:G8" si="5">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -21346,48 +22016,52 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C7" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.999999999999972</v>
       </c>
       <c r="D7" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.7128129211019854</v>
       </c>
       <c r="E7" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="F7" s="60">
         <v>5</v>
       </c>
       <c r="G7" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -21401,47 +22075,51 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>244</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C8" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.999999999999972</v>
       </c>
       <c r="D8" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-17.950417228135962</v>
       </c>
       <c r="E8" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120.00014030577157</v>
       </c>
       <c r="F8" s="60">
         <v>5</v>
       </c>
       <c r="G8" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -21455,23 +22133,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -21489,21 +22171,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -21521,20 +22207,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -21552,20 +22242,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -21583,18 +22277,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -21612,18 +22310,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="33"/>
       <c r="C14" s="61"/>
@@ -21641,18 +22343,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -21670,18 +22376,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -21699,18 +22409,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -21728,18 +22442,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -21757,18 +22475,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="33"/>
       <c r="C19" s="61"/>
@@ -21786,18 +22508,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="33"/>
       <c r="C20" s="61"/>
@@ -21815,18 +22541,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="33"/>
       <c r="C21" s="61"/>
@@ -21844,18 +22574,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="33"/>
       <c r="C22" s="61"/>
@@ -21873,18 +22607,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="33"/>
       <c r="C23" s="61"/>
@@ -21902,18 +22640,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="33"/>
       <c r="C24" s="61"/>
@@ -21931,18 +22673,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="26"/>
@@ -21960,26 +22706,103 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J31" s="73" t="s">
         <v>31</v>
       </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21990,10 +22813,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22006,20 +22829,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -22052,20 +22876,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22084,30 +22911,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -22126,27 +22957,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22165,26 +23000,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>60</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -22203,24 +23042,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -22239,23 +23082,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>200</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -22274,23 +23121,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -22308,21 +23159,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -22340,20 +23195,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -22371,20 +23230,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -22402,18 +23265,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -22431,18 +23298,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -22460,18 +23331,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -22489,18 +23364,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -22518,18 +23397,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -22547,18 +23430,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -22576,18 +23463,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -22605,18 +23496,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -22634,18 +23529,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -22663,18 +23562,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -22692,18 +23595,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -22721,18 +23628,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -22750,18 +23661,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -22779,21 +23694,100 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22804,10 +23798,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22820,20 +23814,21 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -22866,20 +23861,23 @@
       <c r="L2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22898,30 +23896,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="83">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="39">
+      <c r="Q3" s="39">
         <v>100</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="R3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51">
+      <c r="S3" s="51">
         <v>1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -22940,27 +23942,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="83">
+        <f t="shared" ref="M4:M25" si="0">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="41">
+      <c r="P4" s="41">
         <v>116</v>
       </c>
-      <c r="P4" s="42">
+      <c r="Q4" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="53">
+      <c r="S4" s="53">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -22979,26 +23985,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="41">
+      <c r="P5" s="41">
         <v>132</v>
       </c>
-      <c r="P5" s="42">
+      <c r="Q5" s="42">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="33"/>
       <c r="C6" s="61"/>
@@ -23017,24 +24027,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="41">
+      <c r="P6" s="41">
         <v>148</v>
       </c>
-      <c r="P6" s="42">
+      <c r="Q6" s="42">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="33"/>
       <c r="C7" s="61"/>
@@ -23053,23 +24067,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>31</v>
       </c>
-      <c r="O7" s="41">
+      <c r="P7" s="41">
         <v>148</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="33"/>
       <c r="C8" s="61"/>
@@ -23088,23 +24106,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="41">
+      <c r="P8" s="41">
         <v>164</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="33"/>
       <c r="C9" s="61"/>
@@ -23122,21 +24144,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>261</v>
       </c>
-      <c r="O9" s="41">
+      <c r="P9" s="41">
         <v>164</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="33"/>
       <c r="C10" s="61"/>
@@ -23154,20 +24180,24 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="41">
+      <c r="P10" s="41">
         <v>148</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -23185,20 +24215,24 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="55">
+      <c r="O11" s="55">
         <v>64</v>
       </c>
-      <c r="O11" s="41">
+      <c r="P11" s="41">
         <v>116</v>
       </c>
-      <c r="P11" s="42">
+      <c r="Q11" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -23216,18 +24250,22 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="83">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="41">
+      <c r="O12" s="4"/>
+      <c r="P12" s="41">
         <v>132</v>
       </c>
-      <c r="P12" s="42">
+      <c r="Q12" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -23245,18 +24283,22 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="41">
+      <c r="O13" s="4"/>
+      <c r="P13" s="41">
         <v>132</v>
       </c>
-      <c r="P13" s="42">
+      <c r="Q13" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -23274,18 +24316,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41">
+      <c r="O14" s="4"/>
+      <c r="P14" s="41">
         <v>116</v>
       </c>
-      <c r="P14" s="42">
+      <c r="Q14" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="33"/>
       <c r="C15" s="61"/>
@@ -23303,18 +24349,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="41">
+      <c r="O15" s="4"/>
+      <c r="P15" s="41">
         <v>116</v>
       </c>
-      <c r="P15" s="42">
+      <c r="Q15" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="33"/>
       <c r="C16" s="61"/>
@@ -23332,18 +24382,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="41">
+      <c r="O16" s="4"/>
+      <c r="P16" s="41">
         <v>132</v>
       </c>
-      <c r="P16" s="42">
+      <c r="Q16" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="33"/>
       <c r="C17" s="61"/>
@@ -23361,18 +24415,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="41">
+      <c r="O17" s="4"/>
+      <c r="P17" s="41">
         <v>100</v>
       </c>
-      <c r="P17" s="42">
+      <c r="Q17" s="42">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="33"/>
       <c r="C18" s="61"/>
@@ -23390,18 +24448,22 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="41">
+      <c r="O18" s="4"/>
+      <c r="P18" s="41">
         <v>84</v>
       </c>
-      <c r="P18" s="42">
+      <c r="Q18" s="42">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -23419,18 +24481,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="41">
+      <c r="O19" s="4"/>
+      <c r="P19" s="41">
         <v>100</v>
       </c>
-      <c r="P19" s="42">
+      <c r="Q19" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -23448,18 +24514,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="41">
+      <c r="O20" s="4"/>
+      <c r="P20" s="41">
         <v>84</v>
       </c>
-      <c r="P20" s="42">
+      <c r="Q20" s="42">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -23477,18 +24547,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="41">
+      <c r="O21" s="4"/>
+      <c r="P21" s="41">
         <v>68</v>
       </c>
-      <c r="P21" s="42">
+      <c r="Q21" s="42">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -23506,18 +24580,22 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="41">
+      <c r="O22" s="4"/>
+      <c r="P22" s="41">
         <v>68</v>
       </c>
-      <c r="P22" s="42">
+      <c r="Q22" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -23535,18 +24613,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="41">
+      <c r="O23" s="4"/>
+      <c r="P23" s="41">
         <v>100</v>
       </c>
-      <c r="P23" s="42">
+      <c r="Q23" s="42">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -23564,18 +24646,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="83">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="41">
+      <c r="O24" s="4"/>
+      <c r="P24" s="41">
         <v>84</v>
       </c>
-      <c r="P24" s="42">
+      <c r="Q24" s="42">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -23593,21 +24679,100 @@
       <c r="L25" s="45">
         <v>43</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="83">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="46">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="48">
         <v>84</v>
       </c>
-      <c r="P25" s="49">
+      <c r="Q25" s="49">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23620,7 +24785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G164" sqref="A3:G164"/>
     </sheetView>
   </sheetViews>

--- a/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/rightLeg_Lower_ini_generator.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\robotologia\icub-main\app\skinGui\iniGenerators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="5"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4535A" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="4616A" sheetId="8" r:id="rId7"/>
     <sheet name="final ini" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -851,6 +856,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -16685,7 +16693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16720,7 +16728,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16932,7 +16940,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17579,26 +17587,26 @@
         <v>26</v>
       </c>
       <c r="B17" s="61">
-        <f>((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
+        <f t="shared" ref="B17:B24" si="2">((ROUND($L17/10,0))-1)*4+MOD($L17,10)+((J17-1)*16)</f>
         <v>3</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" ref="C17:C24" si="2">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
+        <f t="shared" ref="C17:C24" si="3">((+P17*COS($O$3)-Q17*SIN($O$3)+$O$7)*$S$3)</f>
         <v>63.602540378443734</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" ref="D17:D24" si="3">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
+        <f t="shared" ref="D17:D24" si="4">((P17*SIN($O$3)+Q17*COS($O$3)+$O$9)*$S$4)</f>
         <v>9.5854811567261606</v>
       </c>
       <c r="E17" s="61">
-        <f t="shared" ref="E17:E24" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
+        <f t="shared" ref="E17:E24" si="5">IF(($S$3*$S$4)=1,1,-1)*(($N17/3.1416*180)+$O$5)</f>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F17" s="60">
         <v>5</v>
       </c>
       <c r="G17" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" ref="G17:G24" si="6">IF($S$3*$S$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -17631,26 +17639,26 @@
         <v>26</v>
       </c>
       <c r="B18" s="61">
-        <f>((ROUND($L18/10,0))-1)*4+MOD($L18,10)+((J18-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C18" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.602540378443763</v>
       </c>
       <c r="D18" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.823085463760165</v>
       </c>
       <c r="E18" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F18" s="60">
         <v>5</v>
       </c>
       <c r="G18" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -17683,26 +17691,26 @@
         <v>26</v>
       </c>
       <c r="B19" s="61">
-        <f>((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C19" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.602540378443791</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.8897274573418485</v>
       </c>
       <c r="E19" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
       </c>
       <c r="G19" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -17735,26 +17743,26 @@
         <v>26</v>
       </c>
       <c r="B20" s="61">
-        <f>((ROUND($L20/10,0))-1)*4+MOD($L20,10)+((J20-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C20" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.602540378443763</v>
       </c>
       <c r="D20" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5854811567261606</v>
       </c>
       <c r="E20" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.403057715734235E-4</v>
       </c>
       <c r="F20" s="60">
         <v>5</v>
       </c>
       <c r="G20" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -17787,26 +17795,26 @@
         <v>26</v>
       </c>
       <c r="B21" s="61">
-        <f>((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.602540378443791</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.823085463760187</v>
       </c>
       <c r="E21" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F21" s="60">
         <v>5</v>
       </c>
       <c r="G21" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -17839,26 +17847,26 @@
         <v>26</v>
       </c>
       <c r="B22" s="61">
-        <f>((ROUND($L22/10,0))-1)*4+MOD($L22,10)+((J22-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.39745962155618031</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.585481156726182</v>
       </c>
       <c r="E22" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -17891,26 +17899,26 @@
         <v>26</v>
       </c>
       <c r="B23" s="61">
-        <f>((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C23" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.60254037844382</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-18.127331764375853</v>
       </c>
       <c r="E23" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119.99957908268468</v>
       </c>
       <c r="F23" s="60">
         <v>5</v>
       </c>
       <c r="G23" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -17943,26 +17951,26 @@
         <v>26</v>
       </c>
       <c r="B24" s="61">
-        <f>((ROUND($L24/10,0))-1)*4+MOD($L24,10)+((J24-1)*16)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.39745962155618031</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.8897274573418343</v>
       </c>
       <c r="E24" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.999719388456853</v>
       </c>
       <c r="F24" s="60">
         <v>5</v>
       </c>
       <c r="G24" s="63">
-        <f>IF($S$3*$S$4=-1,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -21771,7 +21779,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21875,7 +21883,7 @@
       </c>
       <c r="O3" s="14">
         <f>+RADIANS(O5)</f>
-        <v>3.1415926535897931</v>
+        <v>-2.0943951023931953</v>
       </c>
       <c r="P3" s="15">
         <v>100</v>
@@ -21963,7 +21971,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="O5" s="3">
-        <v>180</v>
+        <v>-120</v>
       </c>
       <c r="P5" s="41">
         <v>132</v>
@@ -21988,15 +21996,15 @@
       </c>
       <c r="C6" s="61">
         <f t="shared" ref="C6:C8" si="2">((+P6*COS($O$3)-Q6*SIN($O$3)+$O$7)*$S$3)</f>
-        <v>96</v>
+        <v>79.602540378443891</v>
       </c>
       <c r="D6" s="61">
         <f t="shared" ref="D6:D8" si="3">((P6*SIN($O$3)+Q6*COS($O$3)+$O$9)*$S$4)</f>
-        <v>9.7623956929660096</v>
+        <v>19.209438086386086</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" ref="E6:E8" si="4">IF(($S$3*$S$4)=1,1,-1)*(($N6/3.1416*180)+$O$5)</f>
-        <v>120.00014030577157</v>
+        <v>-179.99985969422843</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
@@ -22047,15 +22055,15 @@
       </c>
       <c r="C7" s="61">
         <f t="shared" si="2"/>
-        <v>95.999999999999972</v>
+        <v>95.602540378443862</v>
       </c>
       <c r="D7" s="61">
         <f t="shared" si="3"/>
-        <v>-8.7128129211019854</v>
+        <v>9.9718337793520959</v>
       </c>
       <c r="E7" s="61">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>-120</v>
       </c>
       <c r="F7" s="60">
         <v>5</v>
@@ -22083,7 +22091,8 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>244</v>
+        <f>-37+96</f>
+        <v>59</v>
       </c>
       <c r="P7" s="41">
         <v>148</v>
@@ -22105,15 +22114,15 @@
       </c>
       <c r="C8" s="61">
         <f t="shared" si="2"/>
-        <v>79.999999999999972</v>
+        <v>95.602540378443862</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" si="3"/>
-        <v>-17.950417228135962</v>
+        <v>-8.5033748347159417</v>
       </c>
       <c r="E8" s="61">
         <f t="shared" si="4"/>
-        <v>120.00014030577157</v>
+        <v>-179.99985969422843</v>
       </c>
       <c r="F8" s="60">
         <v>5</v>
@@ -22179,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="P9" s="41">
         <v>164</v>
@@ -22815,7 +22824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -24785,8 +24794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G164" sqref="A3:G164"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27711,15 +27720,15 @@
       </c>
       <c r="C99" s="79">
         <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>96</v>
+        <v>79.602540378443891</v>
       </c>
       <c r="D99" s="79">
         <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>9.7623956929660096</v>
+        <v>19.209438086386086</v>
       </c>
       <c r="E99" s="79">
         <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>120.00014030577157</v>
+        <v>-179.99985969422843</v>
       </c>
       <c r="F99" s="79">
         <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
@@ -27741,15 +27750,15 @@
       </c>
       <c r="C100" s="79">
         <f>IF('4535A_2'!C7="", "", '4535A_2'!C7)</f>
-        <v>95.999999999999972</v>
+        <v>95.602540378443862</v>
       </c>
       <c r="D100" s="79">
         <f>IF('4535A_2'!D7="", "", '4535A_2'!D7)</f>
-        <v>-8.7128129211019854</v>
+        <v>9.9718337793520959</v>
       </c>
       <c r="E100" s="79">
         <f>IF('4535A_2'!E7="", "", '4535A_2'!E7)</f>
-        <v>180</v>
+        <v>-120</v>
       </c>
       <c r="F100" s="79">
         <f>IF('4535A_2'!F7="", "", '4535A_2'!F7)</f>
@@ -27771,15 +27780,15 @@
       </c>
       <c r="C101" s="79">
         <f>IF('4535A_2'!C8="", "", '4535A_2'!C8)</f>
-        <v>79.999999999999972</v>
+        <v>95.602540378443862</v>
       </c>
       <c r="D101" s="79">
         <f>IF('4535A_2'!D8="", "", '4535A_2'!D8)</f>
-        <v>-17.950417228135962</v>
+        <v>-8.5033748347159417</v>
       </c>
       <c r="E101" s="79">
         <f>IF('4535A_2'!E8="", "", '4535A_2'!E8)</f>
-        <v>120.00014030577157</v>
+        <v>-179.99985969422843</v>
       </c>
       <c r="F101" s="79">
         <f>IF('4535A_2'!F8="", "", '4535A_2'!F8)</f>
@@ -27792,32 +27801,32 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="68" t="str">
-        <f>IF('4535A_2'!A6="", "", '4535A_2'!A6)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B102" s="79">
-        <f>IF('4535A_2'!B6="", "", '4535A_2'!B6)</f>
-        <v>19</v>
-      </c>
-      <c r="C102" s="79">
-        <f>IF('4535A_2'!C6="", "", '4535A_2'!C6)</f>
-        <v>96</v>
-      </c>
-      <c r="D102" s="79">
-        <f>IF('4535A_2'!D6="", "", '4535A_2'!D6)</f>
-        <v>9.7623956929660096</v>
-      </c>
-      <c r="E102" s="79">
-        <f>IF('4535A_2'!E6="", "", '4535A_2'!E6)</f>
-        <v>120.00014030577157</v>
-      </c>
-      <c r="F102" s="79">
-        <f>IF('4535A_2'!F6="", "", '4535A_2'!F6)</f>
-        <v>5</v>
-      </c>
-      <c r="G102" s="79">
-        <f>IF('4535A_2'!G6="", "", '4535A_2'!G6)</f>
-        <v>0</v>
+        <f>IF('4535A_2'!A9="", "", '4535A_2'!A9)</f>
+        <v/>
+      </c>
+      <c r="B102" s="79" t="str">
+        <f>IF('4535A_2'!B9="", "", '4535A_2'!B9)</f>
+        <v/>
+      </c>
+      <c r="C102" s="79" t="str">
+        <f>IF('4535A_2'!C9="", "", '4535A_2'!C9)</f>
+        <v/>
+      </c>
+      <c r="D102" s="79" t="str">
+        <f>IF('4535A_2'!D9="", "", '4535A_2'!D9)</f>
+        <v/>
+      </c>
+      <c r="E102" s="79" t="str">
+        <f>IF('4535A_2'!E9="", "", '4535A_2'!E9)</f>
+        <v/>
+      </c>
+      <c r="F102" s="79" t="str">
+        <f>IF('4535A_2'!F9="", "", '4535A_2'!F9)</f>
+        <v/>
+      </c>
+      <c r="G102" s="79" t="str">
+        <f>IF('4535A_2'!G9="", "", '4535A_2'!G9)</f>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
